--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6852,28 +6852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2702.790730421384</v>
+        <v>2909.906306166967</v>
       </c>
       <c r="AB2" t="n">
-        <v>3698.077516074329</v>
+        <v>3981.462184103777</v>
       </c>
       <c r="AC2" t="n">
-        <v>3345.138188224447</v>
+        <v>3601.477021270032</v>
       </c>
       <c r="AD2" t="n">
-        <v>2702790.730421384</v>
+        <v>2909906.306166967</v>
       </c>
       <c r="AE2" t="n">
-        <v>3698077.516074329</v>
+        <v>3981462.184103777</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.327416097305941e-07</v>
+        <v>9.12201062144061e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.03240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>3345138.188224447</v>
+        <v>3601477.021270033</v>
       </c>
     </row>
     <row r="3">
@@ -6958,28 +6958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1599.421935459387</v>
+        <v>1754.651874068947</v>
       </c>
       <c r="AB3" t="n">
-        <v>2188.399653611344</v>
+        <v>2400.792103878509</v>
       </c>
       <c r="AC3" t="n">
-        <v>1979.541862108882</v>
+        <v>2171.663875017224</v>
       </c>
       <c r="AD3" t="n">
-        <v>1599421.935459387</v>
+        <v>1754651.874068947</v>
       </c>
       <c r="AE3" t="n">
-        <v>2188399.653611344</v>
+        <v>2400792.103878509</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966990574817534e-07</v>
+        <v>1.292739121434902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.89467592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>1979541.862108882</v>
+        <v>2171663.875017224</v>
       </c>
     </row>
     <row r="4">
@@ -7064,28 +7064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1366.754538788876</v>
+        <v>1496.169804375108</v>
       </c>
       <c r="AB4" t="n">
-        <v>1870.053856925646</v>
+        <v>2047.125532699297</v>
       </c>
       <c r="AC4" t="n">
-        <v>1691.578541457734</v>
+        <v>1851.750745017206</v>
       </c>
       <c r="AD4" t="n">
-        <v>1366754.538788876</v>
+        <v>1496169.804375108</v>
       </c>
       <c r="AE4" t="n">
-        <v>1870053.856925646</v>
+        <v>2047125.532699297</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.001473253316127e-06</v>
+        <v>1.443788351097701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.34722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1691578.541457735</v>
+        <v>1851750.745017206</v>
       </c>
     </row>
     <row r="5">
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1260.114233270761</v>
+        <v>1389.529409348441</v>
       </c>
       <c r="AB5" t="n">
-        <v>1724.143886277518</v>
+        <v>1901.21543958162</v>
       </c>
       <c r="AC5" t="n">
-        <v>1559.594013622333</v>
+        <v>1719.766106400578</v>
       </c>
       <c r="AD5" t="n">
-        <v>1260114.233270761</v>
+        <v>1389529.409348441</v>
       </c>
       <c r="AE5" t="n">
-        <v>1724143.886277518</v>
+        <v>1901215.43958162</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.057090232458283e-06</v>
+        <v>1.523969370753292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>1559594.013622333</v>
+        <v>1719766.106400578</v>
       </c>
     </row>
     <row r="6">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1199.945057769912</v>
+        <v>1329.274892993021</v>
       </c>
       <c r="AB6" t="n">
-        <v>1641.817765880578</v>
+        <v>1818.772552062482</v>
       </c>
       <c r="AC6" t="n">
-        <v>1485.124982610641</v>
+        <v>1645.191452356947</v>
       </c>
       <c r="AD6" t="n">
-        <v>1199945.057769912</v>
+        <v>1329274.892993021</v>
       </c>
       <c r="AE6" t="n">
-        <v>1641817.765880577</v>
+        <v>1818772.552062482</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091699854039663e-06</v>
+        <v>1.573864830576743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.84143518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1485124.982610641</v>
+        <v>1645191.452356947</v>
       </c>
     </row>
     <row r="7">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1162.407584352706</v>
+        <v>1283.104141288882</v>
       </c>
       <c r="AB7" t="n">
-        <v>1590.457338714706</v>
+        <v>1755.599692671072</v>
       </c>
       <c r="AC7" t="n">
-        <v>1438.666322528668</v>
+        <v>1588.047722002189</v>
       </c>
       <c r="AD7" t="n">
-        <v>1162407.584352706</v>
+        <v>1283104.141288882</v>
       </c>
       <c r="AE7" t="n">
-        <v>1590457.338714706</v>
+        <v>1755599.692671072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.117643940627222e-06</v>
+        <v>1.611267496969436e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.19328703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1438666.322528668</v>
+        <v>1588047.722002189</v>
       </c>
     </row>
     <row r="8">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1132.344092701521</v>
+        <v>1253.125900983718</v>
       </c>
       <c r="AB8" t="n">
-        <v>1549.323143129909</v>
+        <v>1714.582141738925</v>
       </c>
       <c r="AC8" t="n">
-        <v>1401.457916838279</v>
+        <v>1550.944828562511</v>
       </c>
       <c r="AD8" t="n">
-        <v>1132344.092701521</v>
+        <v>1253125.900983718</v>
       </c>
       <c r="AE8" t="n">
-        <v>1549323.143129909</v>
+        <v>1714582.141738925</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132769238070982e-06</v>
+        <v>1.633073100048577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.82870370370371</v>
       </c>
       <c r="AH8" t="n">
-        <v>1401457.916838279</v>
+        <v>1550944.828562511</v>
       </c>
     </row>
     <row r="9">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1112.146869965564</v>
+        <v>1232.758086047169</v>
       </c>
       <c r="AB9" t="n">
-        <v>1521.688411943992</v>
+        <v>1686.713998778161</v>
       </c>
       <c r="AC9" t="n">
-        <v>1376.460605611157</v>
+        <v>1525.736382052738</v>
       </c>
       <c r="AD9" t="n">
-        <v>1112146.869965564</v>
+        <v>1232758.086047169</v>
       </c>
       <c r="AE9" t="n">
-        <v>1521688.411943992</v>
+        <v>1686713.998778161</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.146844167636702e-06</v>
+        <v>1.65336442513611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.49884259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>1376460.605611157</v>
+        <v>1525736.382052738</v>
       </c>
     </row>
     <row r="10">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1096.568343993328</v>
+        <v>1208.716873988593</v>
       </c>
       <c r="AB10" t="n">
-        <v>1500.373185432719</v>
+        <v>1653.819751816196</v>
       </c>
       <c r="AC10" t="n">
-        <v>1357.179674402011</v>
+        <v>1495.981515853458</v>
       </c>
       <c r="AD10" t="n">
-        <v>1096568.343993328</v>
+        <v>1208716.873988593</v>
       </c>
       <c r="AE10" t="n">
-        <v>1500373.185432719</v>
+        <v>1653819.751816196</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.157137772841482e-06</v>
+        <v>1.668204349453859e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.26736111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1357179.674402011</v>
+        <v>1495981.515853458</v>
       </c>
     </row>
     <row r="11">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1082.558242851453</v>
+        <v>1194.706772846717</v>
       </c>
       <c r="AB11" t="n">
-        <v>1481.203946968365</v>
+        <v>1634.650513351842</v>
       </c>
       <c r="AC11" t="n">
-        <v>1339.839921152499</v>
+        <v>1478.641762603946</v>
       </c>
       <c r="AD11" t="n">
-        <v>1082558.242851453</v>
+        <v>1194706.772846717</v>
       </c>
       <c r="AE11" t="n">
-        <v>1481203.946968365</v>
+        <v>1634650.513351842</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.166170936592616e-06</v>
+        <v>1.681227140181679e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.06481481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>1339839.921152499</v>
+        <v>1478641.762603946</v>
       </c>
     </row>
     <row r="12">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1063.752755478362</v>
+        <v>1184.449222905987</v>
       </c>
       <c r="AB12" t="n">
-        <v>1455.473449504952</v>
+        <v>1620.61568099177</v>
       </c>
       <c r="AC12" t="n">
-        <v>1316.565106254015</v>
+        <v>1465.946394946308</v>
       </c>
       <c r="AD12" t="n">
-        <v>1063752.755478362</v>
+        <v>1184449.222905987</v>
       </c>
       <c r="AE12" t="n">
-        <v>1455473.449504952</v>
+        <v>1620615.68099177</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.172420625466948e-06</v>
+        <v>1.690237094231741e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="AH12" t="n">
-        <v>1316565.106254015</v>
+        <v>1465946.394946308</v>
       </c>
     </row>
     <row r="13">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1053.786485818421</v>
+        <v>1174.482953246047</v>
       </c>
       <c r="AB13" t="n">
-        <v>1441.837159675435</v>
+        <v>1606.979391162253</v>
       </c>
       <c r="AC13" t="n">
-        <v>1304.230244787174</v>
+        <v>1453.611533479468</v>
       </c>
       <c r="AD13" t="n">
-        <v>1053786.485818421</v>
+        <v>1174482.953246047</v>
       </c>
       <c r="AE13" t="n">
-        <v>1441837.159675435</v>
+        <v>1606979.391162253</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.17761994646324e-06</v>
+        <v>1.697732770290196e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.81018518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>1304230.244787174</v>
+        <v>1453611.533479468</v>
       </c>
     </row>
     <row r="14">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1044.286760870036</v>
+        <v>1156.520542211322</v>
       </c>
       <c r="AB14" t="n">
-        <v>1428.839216902769</v>
+        <v>1582.402427938895</v>
       </c>
       <c r="AC14" t="n">
-        <v>1292.472807430004</v>
+        <v>1431.380161132163</v>
       </c>
       <c r="AD14" t="n">
-        <v>1044286.760870037</v>
+        <v>1156520.542211322</v>
       </c>
       <c r="AE14" t="n">
-        <v>1428839.216902769</v>
+        <v>1582402.427938895</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.183554524974159e-06</v>
+        <v>1.706288440942775e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1292472.807430004</v>
+        <v>1431380.161132163</v>
       </c>
     </row>
     <row r="15">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1036.491261839643</v>
+        <v>1148.725043180928</v>
       </c>
       <c r="AB15" t="n">
-        <v>1418.173071216239</v>
+        <v>1571.736282252366</v>
       </c>
       <c r="AC15" t="n">
-        <v>1282.824623717767</v>
+        <v>1421.731977419926</v>
       </c>
       <c r="AD15" t="n">
-        <v>1036491.261839643</v>
+        <v>1148725.043180928</v>
       </c>
       <c r="AE15" t="n">
-        <v>1418173.071216239</v>
+        <v>1571736.282252365</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.186915702183883e-06</v>
+        <v>1.711134130515918e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.60763888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1282824.623717767</v>
+        <v>1421731.977419926</v>
       </c>
     </row>
     <row r="16">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1026.89027245414</v>
+        <v>1139.124053795425</v>
       </c>
       <c r="AB16" t="n">
-        <v>1405.036573973236</v>
+        <v>1558.599785009362</v>
       </c>
       <c r="AC16" t="n">
-        <v>1270.941855334446</v>
+        <v>1409.849209036605</v>
       </c>
       <c r="AD16" t="n">
-        <v>1026890.27245414</v>
+        <v>1139124.053795425</v>
       </c>
       <c r="AE16" t="n">
-        <v>1405036.573973236</v>
+        <v>1558599.785009362</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.190854581726529e-06</v>
+        <v>1.716812672984444e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1270941.855334446</v>
+        <v>1409849.209036605</v>
       </c>
     </row>
     <row r="17">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1019.688989073987</v>
+        <v>1131.75217821468</v>
       </c>
       <c r="AB17" t="n">
-        <v>1395.183460354309</v>
+        <v>1548.513259615589</v>
       </c>
       <c r="AC17" t="n">
-        <v>1262.029109050378</v>
+        <v>1400.725327469886</v>
       </c>
       <c r="AD17" t="n">
-        <v>1019688.989073987</v>
+        <v>1131752.17821468</v>
       </c>
       <c r="AE17" t="n">
-        <v>1395183.460354309</v>
+        <v>1548513.259615589</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194740942875273e-06</v>
+        <v>1.72241550155339e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.43981481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>1262029.109050378</v>
+        <v>1400725.327469886</v>
       </c>
     </row>
     <row r="18">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1013.477162288162</v>
+        <v>1125.540351428855</v>
       </c>
       <c r="AB18" t="n">
-        <v>1386.684164899488</v>
+        <v>1540.013964160767</v>
       </c>
       <c r="AC18" t="n">
-        <v>1254.340974424929</v>
+        <v>1393.037192844437</v>
       </c>
       <c r="AD18" t="n">
-        <v>1013477.162288162</v>
+        <v>1125540.351428855</v>
       </c>
       <c r="AE18" t="n">
-        <v>1386684.164899488</v>
+        <v>1540013.964160767</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.198102120084997e-06</v>
+        <v>1.727261191126532e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1254340.974424929</v>
+        <v>1393037.192844437</v>
       </c>
     </row>
     <row r="19">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1007.417782752996</v>
+        <v>1119.480971893689</v>
       </c>
       <c r="AB19" t="n">
-        <v>1378.393454498515</v>
+        <v>1531.723253759795</v>
       </c>
       <c r="AC19" t="n">
-        <v>1246.84151778854</v>
+        <v>1385.537736208048</v>
       </c>
       <c r="AD19" t="n">
-        <v>1007417.782752996</v>
+        <v>1119480.971893689</v>
       </c>
       <c r="AE19" t="n">
-        <v>1378393.454498515</v>
+        <v>1531723.253759795</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.199887745477663e-06</v>
+        <v>1.729835463712264e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.32986111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>1246841.51778854</v>
+        <v>1385537.736208048</v>
       </c>
     </row>
     <row r="20">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000.024712231522</v>
+        <v>1112.087901372215</v>
       </c>
       <c r="AB20" t="n">
-        <v>1368.277929251781</v>
+        <v>1521.607728513061</v>
       </c>
       <c r="AC20" t="n">
-        <v>1237.691404074126</v>
+        <v>1376.387622493634</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000024.712231522</v>
+        <v>1112087.901372215</v>
       </c>
       <c r="AE20" t="n">
-        <v>1368277.929251781</v>
+        <v>1521607.728513061</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201778407658133e-06</v>
+        <v>1.732561164097157e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.28935185185185</v>
       </c>
       <c r="AH20" t="n">
-        <v>1237691.404074126</v>
+        <v>1376387.622493634</v>
       </c>
     </row>
     <row r="21">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>991.3265516329737</v>
+        <v>1103.389740773667</v>
       </c>
       <c r="AB21" t="n">
-        <v>1356.376722185085</v>
+        <v>1509.706521446365</v>
       </c>
       <c r="AC21" t="n">
-        <v>1226.926031506426</v>
+        <v>1365.622249925934</v>
       </c>
       <c r="AD21" t="n">
-        <v>991326.5516329737</v>
+        <v>1103389.740773667</v>
       </c>
       <c r="AE21" t="n">
-        <v>1356376.722185085</v>
+        <v>1509706.521446365</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.205664768806877e-06</v>
+        <v>1.738163992666103e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1226926.031506426</v>
+        <v>1365622.249925934</v>
       </c>
     </row>
     <row r="22">
@@ -8972,28 +8972,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>985.6715388601012</v>
+        <v>1097.734728000794</v>
       </c>
       <c r="AB22" t="n">
-        <v>1348.639284227685</v>
+        <v>1501.969083488965</v>
       </c>
       <c r="AC22" t="n">
-        <v>1219.927043768118</v>
+        <v>1358.623262187626</v>
       </c>
       <c r="AD22" t="n">
-        <v>985671.5388601013</v>
+        <v>1097734.728000794</v>
       </c>
       <c r="AE22" t="n">
-        <v>1348639.284227685</v>
+        <v>1501969.083488965</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.207765504562954e-06</v>
+        <v>1.741192548649317e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.16203703703704</v>
       </c>
       <c r="AH22" t="n">
-        <v>1219927.043768118</v>
+        <v>1358623.262187626</v>
       </c>
     </row>
     <row r="23">
@@ -9078,28 +9078,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>982.6887344680042</v>
+        <v>1094.751923608698</v>
       </c>
       <c r="AB23" t="n">
-        <v>1344.558079666376</v>
+        <v>1497.887878927655</v>
       </c>
       <c r="AC23" t="n">
-        <v>1216.235343642133</v>
+        <v>1354.931562061641</v>
       </c>
       <c r="AD23" t="n">
-        <v>982688.7344680042</v>
+        <v>1094751.923608697</v>
       </c>
       <c r="AE23" t="n">
-        <v>1344558.079666376</v>
+        <v>1497887.878927656</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206925210260523e-06</v>
+        <v>1.739981126256031e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.17939814814815</v>
       </c>
       <c r="AH23" t="n">
-        <v>1216235.343642133</v>
+        <v>1354931.562061641</v>
       </c>
     </row>
     <row r="24">
@@ -9184,28 +9184,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>976.3259523969738</v>
+        <v>1088.389141537667</v>
       </c>
       <c r="AB24" t="n">
-        <v>1335.852240530658</v>
+        <v>1489.182039791938</v>
       </c>
       <c r="AC24" t="n">
-        <v>1208.360377574806</v>
+        <v>1347.056595994314</v>
       </c>
       <c r="AD24" t="n">
-        <v>976325.9523969737</v>
+        <v>1088389.141537667</v>
       </c>
       <c r="AE24" t="n">
-        <v>1335852.240530658</v>
+        <v>1489182.039791937</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.209236019592209e-06</v>
+        <v>1.743312537837567e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.13310185185185</v>
       </c>
       <c r="AH24" t="n">
-        <v>1208360.377574806</v>
+        <v>1347056.595994314</v>
       </c>
     </row>
     <row r="25">
@@ -9290,28 +9290,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>970.9861676908127</v>
+        <v>1083.049356831506</v>
       </c>
       <c r="AB25" t="n">
-        <v>1328.546111521013</v>
+        <v>1481.875910782293</v>
       </c>
       <c r="AC25" t="n">
-        <v>1201.751535263626</v>
+        <v>1340.447753683133</v>
       </c>
       <c r="AD25" t="n">
-        <v>970986.1676908127</v>
+        <v>1083049.356831506</v>
       </c>
       <c r="AE25" t="n">
-        <v>1328546.111521013</v>
+        <v>1481875.910782293</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210969126590973e-06</v>
+        <v>1.745811096523718e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.09837962962963</v>
       </c>
       <c r="AH25" t="n">
-        <v>1201751.535263626</v>
+        <v>1340447.753683134</v>
       </c>
     </row>
     <row r="26">
@@ -9396,28 +9396,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>964.6449986593364</v>
+        <v>1068.245501713689</v>
       </c>
       <c r="AB26" t="n">
-        <v>1319.869844299514</v>
+        <v>1461.620623110102</v>
       </c>
       <c r="AC26" t="n">
-        <v>1193.903318808528</v>
+        <v>1322.125602237902</v>
       </c>
       <c r="AD26" t="n">
-        <v>964644.9986593364</v>
+        <v>1068245.501713689</v>
       </c>
       <c r="AE26" t="n">
-        <v>1319869.844299514</v>
+        <v>1461620.623110102</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.213384972710462e-06</v>
+        <v>1.749293935904414e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.0462962962963</v>
       </c>
       <c r="AH26" t="n">
-        <v>1193903.318808528</v>
+        <v>1322125.602237902</v>
       </c>
     </row>
     <row r="27">
@@ -9502,28 +9502,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>961.2140509761214</v>
+        <v>1064.814554030474</v>
       </c>
       <c r="AB27" t="n">
-        <v>1315.17547031661</v>
+        <v>1456.926249127198</v>
       </c>
       <c r="AC27" t="n">
-        <v>1189.656969289957</v>
+        <v>1317.879252719331</v>
       </c>
       <c r="AD27" t="n">
-        <v>961214.0509761213</v>
+        <v>1064814.554030474</v>
       </c>
       <c r="AE27" t="n">
-        <v>1315175.47031661</v>
+        <v>1456926.249127198</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.212912307165345e-06</v>
+        <v>1.748612510808191e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH27" t="n">
-        <v>1189656.969289958</v>
+        <v>1317879.252719331</v>
       </c>
     </row>
     <row r="28">
@@ -9608,28 +9608,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>958.8505933867455</v>
+        <v>1062.451096441098</v>
       </c>
       <c r="AB28" t="n">
-        <v>1311.941683374436</v>
+        <v>1453.692462185024</v>
       </c>
       <c r="AC28" t="n">
-        <v>1186.731810434896</v>
+        <v>1314.954093864269</v>
       </c>
       <c r="AD28" t="n">
-        <v>958850.5933867454</v>
+        <v>1062451.096441098</v>
       </c>
       <c r="AE28" t="n">
-        <v>1311941.683374436</v>
+        <v>1453692.462185024</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.214645414164109e-06</v>
+        <v>1.751111069494343e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25.02314814814815</v>
       </c>
       <c r="AH28" t="n">
-        <v>1186731.810434896</v>
+        <v>1314954.09386427</v>
       </c>
     </row>
     <row r="29">
@@ -9714,28 +9714,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>961.9506717635544</v>
+        <v>1065.551174817907</v>
       </c>
       <c r="AB29" t="n">
-        <v>1316.183347375391</v>
+        <v>1457.93412618598</v>
       </c>
       <c r="AC29" t="n">
-        <v>1190.568655976813</v>
+        <v>1318.790939406187</v>
       </c>
       <c r="AD29" t="n">
-        <v>961950.6717635544</v>
+        <v>1065551.174817907</v>
       </c>
       <c r="AE29" t="n">
-        <v>1316183.347375391</v>
+        <v>1457934.12618598</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.214750450951913e-06</v>
+        <v>1.751262497293503e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH29" t="n">
-        <v>1190568.655976813</v>
+        <v>1318790.939406187</v>
       </c>
     </row>
   </sheetData>
@@ -10011,28 +10011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2041.739522820132</v>
+        <v>2218.420166129178</v>
       </c>
       <c r="AB2" t="n">
-        <v>2793.598090313063</v>
+        <v>3035.340341088541</v>
       </c>
       <c r="AC2" t="n">
-        <v>2526.981009413129</v>
+        <v>2745.65171906186</v>
       </c>
       <c r="AD2" t="n">
-        <v>2041739.522820132</v>
+        <v>2218420.166129178</v>
       </c>
       <c r="AE2" t="n">
-        <v>2793598.090313063</v>
+        <v>3035340.341088541</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.480634874239976e-07</v>
+        <v>1.09513680422366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2526981.009413129</v>
+        <v>2745651.71906186</v>
       </c>
     </row>
     <row r="3">
@@ -10117,28 +10117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1328.287986386544</v>
+        <v>1462.966763266593</v>
       </c>
       <c r="AB3" t="n">
-        <v>1817.422222904254</v>
+        <v>2001.695667039834</v>
       </c>
       <c r="AC3" t="n">
-        <v>1643.969996718381</v>
+        <v>1810.656641975065</v>
       </c>
       <c r="AD3" t="n">
-        <v>1328287.986386544</v>
+        <v>1462966.763266593</v>
       </c>
       <c r="AE3" t="n">
-        <v>1817422.222904254</v>
+        <v>2001695.667039834</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.934700363886427e-07</v>
+        <v>1.454402759970502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.64930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1643969.996718382</v>
+        <v>1810656.641975065</v>
       </c>
     </row>
     <row r="4">
@@ -10223,28 +10223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1158.448215501157</v>
+        <v>1284.624227971631</v>
       </c>
       <c r="AB4" t="n">
-        <v>1585.039955576991</v>
+        <v>1757.6795423319</v>
       </c>
       <c r="AC4" t="n">
-        <v>1433.765966834272</v>
+        <v>1589.929073730474</v>
       </c>
       <c r="AD4" t="n">
-        <v>1158448.215501157</v>
+        <v>1284624.227971631</v>
       </c>
       <c r="AE4" t="n">
-        <v>1585039.955576991</v>
+        <v>1757679.5423319</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.087242828842257e-06</v>
+        <v>1.591682600488335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.91782407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1433765.966834272</v>
+        <v>1589929.073730474</v>
       </c>
     </row>
     <row r="5">
@@ -10329,28 +10329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1086.292781399088</v>
+        <v>1204.13671116913</v>
       </c>
       <c r="AB5" t="n">
-        <v>1486.313707365452</v>
+        <v>1647.552970984085</v>
       </c>
       <c r="AC5" t="n">
-        <v>1344.462013188883</v>
+        <v>1490.312827788481</v>
       </c>
       <c r="AD5" t="n">
-        <v>1086292.781399088</v>
+        <v>1204136.71116913</v>
       </c>
       <c r="AE5" t="n">
-        <v>1486313.707365452</v>
+        <v>1647552.970984085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135161486399666e-06</v>
+        <v>1.661833712502662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.69675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1344462.013188882</v>
+        <v>1490312.827788481</v>
       </c>
     </row>
     <row r="6">
@@ -10435,28 +10435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1038.85201150288</v>
+        <v>1156.610600418351</v>
       </c>
       <c r="AB6" t="n">
-        <v>1421.403153054405</v>
+        <v>1582.52564955084</v>
       </c>
       <c r="AC6" t="n">
-        <v>1285.746431078747</v>
+        <v>1431.491622646406</v>
       </c>
       <c r="AD6" t="n">
-        <v>1038852.01150288</v>
+        <v>1156610.600418351</v>
       </c>
       <c r="AE6" t="n">
-        <v>1421403.153054405</v>
+        <v>1582525.64955084</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.165151394530834e-06</v>
+        <v>1.70573780981775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.98495370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>1285746.431078747</v>
+        <v>1431491.622646406</v>
       </c>
     </row>
     <row r="7">
@@ -10541,28 +10541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1011.504671216951</v>
+        <v>1129.263260132422</v>
       </c>
       <c r="AB7" t="n">
-        <v>1383.985315595692</v>
+        <v>1545.107812092128</v>
       </c>
       <c r="AC7" t="n">
-        <v>1251.899699510829</v>
+        <v>1397.644891078488</v>
       </c>
       <c r="AD7" t="n">
-        <v>1011504.671216951</v>
+        <v>1129263.260132422</v>
       </c>
       <c r="AE7" t="n">
-        <v>1383985.315595692</v>
+        <v>1545107.812092128</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.186013939317733e-06</v>
+        <v>1.736279790558682e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1251899.699510829</v>
+        <v>1397644.891078488</v>
       </c>
     </row>
     <row r="8">
@@ -10647,28 +10647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>989.8437152191456</v>
+        <v>1099.184970088164</v>
       </c>
       <c r="AB8" t="n">
-        <v>1354.34783998556</v>
+        <v>1503.95336869307</v>
       </c>
       <c r="AC8" t="n">
-        <v>1225.090782976469</v>
+        <v>1360.418169996813</v>
       </c>
       <c r="AD8" t="n">
-        <v>989843.7152191455</v>
+        <v>1099184.970088164</v>
       </c>
       <c r="AE8" t="n">
-        <v>1354347.83998556</v>
+        <v>1503953.36869307</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.202041154713919e-06</v>
+        <v>1.759743030971637e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.15740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1225090.782976469</v>
+        <v>1360418.169996813</v>
       </c>
     </row>
     <row r="9">
@@ -10753,28 +10753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>965.0737299842617</v>
+        <v>1082.746978045161</v>
       </c>
       <c r="AB9" t="n">
-        <v>1320.456453412567</v>
+        <v>1481.462182786805</v>
       </c>
       <c r="AC9" t="n">
-        <v>1194.433942771143</v>
+        <v>1340.073511306864</v>
       </c>
       <c r="AD9" t="n">
-        <v>965073.7299842617</v>
+        <v>1082746.978045161</v>
       </c>
       <c r="AE9" t="n">
-        <v>1320456.453412567</v>
+        <v>1481462.182786805</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.213450358894254e-06</v>
+        <v>1.776445676689334e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.90856481481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>1194433.942771143</v>
+        <v>1340073.511306864</v>
       </c>
     </row>
     <row r="10">
@@ -10859,28 +10859,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>952.0157674194121</v>
+        <v>1061.442273634451</v>
       </c>
       <c r="AB10" t="n">
-        <v>1302.58997295469</v>
+        <v>1452.312146314849</v>
       </c>
       <c r="AC10" t="n">
-        <v>1178.272614132403</v>
+        <v>1313.705513403458</v>
       </c>
       <c r="AD10" t="n">
-        <v>952015.7674194122</v>
+        <v>1061442.273634451</v>
       </c>
       <c r="AE10" t="n">
-        <v>1302589.97295469</v>
+        <v>1452312.146314849</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22208875634508e-06</v>
+        <v>1.789091965589876e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1178272.614132403</v>
+        <v>1313705.513403458</v>
       </c>
     </row>
     <row r="11">
@@ -10965,28 +10965,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>941.3354444055387</v>
+        <v>1050.761950620578</v>
       </c>
       <c r="AB11" t="n">
-        <v>1287.976683824511</v>
+        <v>1437.69885718467</v>
       </c>
       <c r="AC11" t="n">
-        <v>1165.053996806928</v>
+        <v>1300.486896077984</v>
       </c>
       <c r="AD11" t="n">
-        <v>941335.4444055387</v>
+        <v>1050761.950620578</v>
       </c>
       <c r="AE11" t="n">
-        <v>1287976.683824511</v>
+        <v>1437698.85718467</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.227576040260384e-06</v>
+        <v>1.797125142816007e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.61342592592592</v>
       </c>
       <c r="AH11" t="n">
-        <v>1165053.996806928</v>
+        <v>1300486.896077984</v>
       </c>
     </row>
     <row r="12">
@@ -11071,28 +11071,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>928.7890134859174</v>
+        <v>1038.044927500364</v>
       </c>
       <c r="AB12" t="n">
-        <v>1270.810103530818</v>
+        <v>1420.29886511613</v>
       </c>
       <c r="AC12" t="n">
-        <v>1149.525770843018</v>
+        <v>1284.747534831422</v>
       </c>
       <c r="AD12" t="n">
-        <v>928789.0134859174</v>
+        <v>1038044.927500364</v>
       </c>
       <c r="AE12" t="n">
-        <v>1270810.103530817</v>
+        <v>1420298.86511613</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235182176380607e-06</v>
+        <v>1.808260239961138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.45717592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>1149525.770843018</v>
+        <v>1284747.534831422</v>
       </c>
     </row>
     <row r="13">
@@ -11177,28 +11177,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>920.0428711646442</v>
+        <v>1029.298785179092</v>
       </c>
       <c r="AB13" t="n">
-        <v>1258.843245754285</v>
+        <v>1408.332007339597</v>
       </c>
       <c r="AC13" t="n">
-        <v>1138.701013177087</v>
+        <v>1273.922777165492</v>
       </c>
       <c r="AD13" t="n">
-        <v>920042.8711646443</v>
+        <v>1029298.785179092</v>
       </c>
       <c r="AE13" t="n">
-        <v>1258843.245754285</v>
+        <v>1408332.007339597</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238441949003561e-06</v>
+        <v>1.813032424451908e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.38773148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>1138701.013177087</v>
+        <v>1273922.777165492</v>
       </c>
     </row>
     <row r="14">
@@ -11283,28 +11283,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>909.6273244851637</v>
+        <v>1018.883238499611</v>
       </c>
       <c r="AB14" t="n">
-        <v>1244.59223528593</v>
+        <v>1394.080996871242</v>
       </c>
       <c r="AC14" t="n">
-        <v>1125.810099146413</v>
+        <v>1261.031863134818</v>
       </c>
       <c r="AD14" t="n">
-        <v>909627.3244851638</v>
+        <v>1018883.238499611</v>
       </c>
       <c r="AE14" t="n">
-        <v>1244592.23528593</v>
+        <v>1394080.996871242</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244092221550012e-06</v>
+        <v>1.821304210902577e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.27199074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>1125810.099146413</v>
+        <v>1261031.863134818</v>
       </c>
     </row>
     <row r="15">
@@ -11389,28 +11389,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>900.6460904547221</v>
+        <v>1009.902004469169</v>
       </c>
       <c r="AB15" t="n">
-        <v>1232.303714661399</v>
+        <v>1381.79247624671</v>
       </c>
       <c r="AC15" t="n">
-        <v>1114.69437768324</v>
+        <v>1249.916141671644</v>
       </c>
       <c r="AD15" t="n">
-        <v>900646.0904547221</v>
+        <v>1009902.004469169</v>
       </c>
       <c r="AE15" t="n">
-        <v>1232303.714661398</v>
+        <v>1381792.47624671</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.247351994172965e-06</v>
+        <v>1.826076395393348e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1114694.37768324</v>
+        <v>1249916.141671645</v>
       </c>
     </row>
     <row r="16">
@@ -11495,28 +11495,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>891.5232720846053</v>
+        <v>1000.779186099052</v>
       </c>
       <c r="AB16" t="n">
-        <v>1219.821472097063</v>
+        <v>1369.310233682375</v>
       </c>
       <c r="AC16" t="n">
-        <v>1103.403422830307</v>
+        <v>1238.625186818712</v>
       </c>
       <c r="AD16" t="n">
-        <v>891523.2720846053</v>
+        <v>1000779.186099052</v>
       </c>
       <c r="AE16" t="n">
-        <v>1219821.472097063</v>
+        <v>1369310.233682375</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.251100732689361e-06</v>
+        <v>1.831564407557734e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.12731481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>1103403.422830307</v>
+        <v>1238625.186818712</v>
       </c>
     </row>
     <row r="17">
@@ -11601,28 +11601,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>881.7582850960415</v>
+        <v>991.0141991104887</v>
       </c>
       <c r="AB17" t="n">
-        <v>1206.460586098488</v>
+        <v>1355.949347683801</v>
       </c>
       <c r="AC17" t="n">
-        <v>1091.317681039315</v>
+        <v>1226.53944502772</v>
       </c>
       <c r="AD17" t="n">
-        <v>881758.2850960415</v>
+        <v>991014.1991104886</v>
       </c>
       <c r="AE17" t="n">
-        <v>1206460.586098488</v>
+        <v>1355949.347683801</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.252947937175701e-06</v>
+        <v>1.834268645435837e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.0925925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>1091317.681039315</v>
+        <v>1226539.44502772</v>
       </c>
     </row>
     <row r="18">
@@ -11707,28 +11707,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>874.7841969061307</v>
+        <v>975.793369074718</v>
       </c>
       <c r="AB18" t="n">
-        <v>1196.918330961996</v>
+        <v>1335.12353653323</v>
       </c>
       <c r="AC18" t="n">
-        <v>1082.686125340411</v>
+        <v>1207.70122006415</v>
       </c>
       <c r="AD18" t="n">
-        <v>874784.1969061306</v>
+        <v>975793.3690747181</v>
       </c>
       <c r="AE18" t="n">
-        <v>1196918.330961996</v>
+        <v>1335123.53653323</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.255827402992643e-06</v>
+        <v>1.838484075069351e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.03472222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1082686.125340411</v>
+        <v>1207701.22006415</v>
       </c>
     </row>
     <row r="19">
@@ -11813,28 +11813,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>860.2169528604235</v>
+        <v>969.5581182208911</v>
       </c>
       <c r="AB19" t="n">
-        <v>1176.986784997209</v>
+        <v>1326.59219123517</v>
       </c>
       <c r="AC19" t="n">
-        <v>1064.656818148402</v>
+        <v>1199.984094387519</v>
       </c>
       <c r="AD19" t="n">
-        <v>860216.9528604235</v>
+        <v>969558.1182208911</v>
       </c>
       <c r="AE19" t="n">
-        <v>1176986.784997209</v>
+        <v>1326592.19123517</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.257891925653847e-06</v>
+        <v>1.841506458580173e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH19" t="n">
-        <v>1064656.818148402</v>
+        <v>1199984.094387519</v>
       </c>
     </row>
     <row r="20">
@@ -11919,28 +11919,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>868.7414614071311</v>
+        <v>969.7506335757184</v>
       </c>
       <c r="AB20" t="n">
-        <v>1188.650393665589</v>
+        <v>1326.855599236823</v>
       </c>
       <c r="AC20" t="n">
-        <v>1075.20726837545</v>
+        <v>1200.22236309919</v>
       </c>
       <c r="AD20" t="n">
-        <v>868741.461407131</v>
+        <v>969750.6335757184</v>
       </c>
       <c r="AE20" t="n">
-        <v>1188650.393665589</v>
+        <v>1326855.599236823</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257239971129256e-06</v>
+        <v>1.840552021682018e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.00578703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1075207.26837545</v>
+        <v>1200222.363099189</v>
       </c>
     </row>
     <row r="21">
@@ -12025,28 +12025,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>871.8005370912194</v>
+        <v>972.8097092598069</v>
       </c>
       <c r="AB21" t="n">
-        <v>1192.835955973453</v>
+        <v>1331.041161544687</v>
       </c>
       <c r="AC21" t="n">
-        <v>1078.993366491125</v>
+        <v>1204.008461214865</v>
       </c>
       <c r="AD21" t="n">
-        <v>871800.5370912194</v>
+        <v>972809.7092598069</v>
       </c>
       <c r="AE21" t="n">
-        <v>1192835.955973453</v>
+        <v>1331041.161544687</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.25718564158554e-06</v>
+        <v>1.840472485273839e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.01157407407408</v>
       </c>
       <c r="AH21" t="n">
-        <v>1078993.366491125</v>
+        <v>1204008.461214865</v>
       </c>
     </row>
   </sheetData>
@@ -12322,28 +12322,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>970.0637059386166</v>
+        <v>1094.169733485862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1327.283958655518</v>
+        <v>1497.091300717177</v>
       </c>
       <c r="AC2" t="n">
-        <v>1200.609840496171</v>
+        <v>1354.211008157566</v>
       </c>
       <c r="AD2" t="n">
-        <v>970063.7059386167</v>
+        <v>1094169.733485862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1327283.958655518</v>
+        <v>1497091.300717177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117722036509542e-06</v>
+        <v>1.729253954169472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1200609.840496171</v>
+        <v>1354211.008157566</v>
       </c>
     </row>
     <row r="3">
@@ -12428,28 +12428,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>774.3539687526102</v>
+        <v>882.9254188313759</v>
       </c>
       <c r="AB3" t="n">
-        <v>1059.505262133384</v>
+        <v>1208.057509965479</v>
       </c>
       <c r="AC3" t="n">
-        <v>958.3875669403482</v>
+        <v>1092.762196733737</v>
       </c>
       <c r="AD3" t="n">
-        <v>774353.9687526101</v>
+        <v>882925.4188313759</v>
       </c>
       <c r="AE3" t="n">
-        <v>1059505.262133384</v>
+        <v>1208057.509965479</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.285468246577444e-06</v>
+        <v>1.988778046548218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>958387.5669403481</v>
+        <v>1092762.196733737</v>
       </c>
     </row>
     <row r="4">
@@ -12534,28 +12534,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.5198748530049</v>
+        <v>814.4093770521025</v>
       </c>
       <c r="AB4" t="n">
-        <v>976.2693710491354</v>
+        <v>1114.310838888646</v>
       </c>
       <c r="AC4" t="n">
-        <v>883.0955924788732</v>
+        <v>1007.962576370198</v>
       </c>
       <c r="AD4" t="n">
-        <v>713519.8748530049</v>
+        <v>814409.3770521025</v>
       </c>
       <c r="AE4" t="n">
-        <v>976269.3710491355</v>
+        <v>1114310.838888646</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.343909643941179e-06</v>
+        <v>2.079194101861955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.10532407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>883095.5924788732</v>
+        <v>1007962.576370198</v>
       </c>
     </row>
     <row r="5">
@@ -12640,28 +12640,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>673.3330304229906</v>
+        <v>774.3077839681087</v>
       </c>
       <c r="AB5" t="n">
-        <v>921.2839575815399</v>
+        <v>1059.4420700737</v>
       </c>
       <c r="AC5" t="n">
-        <v>833.3579097001124</v>
+        <v>958.3304058421498</v>
       </c>
       <c r="AD5" t="n">
-        <v>673333.0304229907</v>
+        <v>774307.7839681087</v>
       </c>
       <c r="AE5" t="n">
-        <v>921283.9575815399</v>
+        <v>1059442.0700737</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3751309298772e-06</v>
+        <v>2.127497284939314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.5150462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>833357.9097001124</v>
+        <v>958330.4058421499</v>
       </c>
     </row>
     <row r="6">
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>649.6653651343263</v>
+        <v>750.4695264788521</v>
       </c>
       <c r="AB6" t="n">
-        <v>888.9008137898887</v>
+        <v>1026.825514507202</v>
       </c>
       <c r="AC6" t="n">
-        <v>804.0653677019088</v>
+        <v>928.8267285612951</v>
       </c>
       <c r="AD6" t="n">
-        <v>649665.3651343263</v>
+        <v>750469.5264788521</v>
       </c>
       <c r="AE6" t="n">
-        <v>888900.8137898888</v>
+        <v>1026825.514507202</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392348105034151e-06</v>
+        <v>2.154134380073237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.19675925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>804065.3677019088</v>
+        <v>928826.7285612951</v>
       </c>
     </row>
     <row r="7">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>647.1586448677461</v>
+        <v>747.9628062122721</v>
       </c>
       <c r="AB7" t="n">
-        <v>885.4710085324608</v>
+        <v>1023.395709249774</v>
       </c>
       <c r="AC7" t="n">
-        <v>800.962898244488</v>
+        <v>925.7242591038743</v>
       </c>
       <c r="AD7" t="n">
-        <v>647158.6448677462</v>
+        <v>747962.806212272</v>
       </c>
       <c r="AE7" t="n">
-        <v>885471.0085324608</v>
+        <v>1023395.709249774</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.395803664836779e-06</v>
+        <v>2.159480557617721e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.13310185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>800962.8982444879</v>
+        <v>925724.2591038742</v>
       </c>
     </row>
   </sheetData>
@@ -13149,28 +13149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.067510473104</v>
+        <v>1424.368548829935</v>
       </c>
       <c r="AB2" t="n">
-        <v>1751.444840422227</v>
+        <v>1948.883887214557</v>
       </c>
       <c r="AC2" t="n">
-        <v>1584.289403020601</v>
+        <v>1762.885144294514</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280067.510473103</v>
+        <v>1424368.548829935</v>
       </c>
       <c r="AE2" t="n">
-        <v>1751444.840422227</v>
+        <v>1948883.887214558</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.708104350807459e-07</v>
+        <v>1.467179955035589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584289.403020601</v>
+        <v>1762885.144294514</v>
       </c>
     </row>
     <row r="3">
@@ -13255,28 +13255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>955.6599957820133</v>
+        <v>1075.896637603611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1307.576166972409</v>
+        <v>1472.089244778985</v>
       </c>
       <c r="AC3" t="n">
-        <v>1182.782932791238</v>
+        <v>1331.595113347509</v>
       </c>
       <c r="AD3" t="n">
-        <v>955659.9957820133</v>
+        <v>1075896.637603611</v>
       </c>
       <c r="AE3" t="n">
-        <v>1307576.166972409</v>
+        <v>1472089.244778985</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17142177954244e-06</v>
+        <v>1.770362669921073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.65162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1182782.932791238</v>
+        <v>1331595.113347509</v>
       </c>
     </row>
     <row r="4">
@@ -13361,28 +13361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.5349677730819</v>
+        <v>977.8141089343126</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.209080550059</v>
+        <v>1337.888401957878</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.140003388841</v>
+        <v>1210.202210613183</v>
       </c>
       <c r="AD4" t="n">
-        <v>873534.967773082</v>
+        <v>977814.1089343126</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195209.080550059</v>
+        <v>1337888.401957878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.241598052106375e-06</v>
+        <v>1.876419647374509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081140.003388841</v>
+        <v>1210202.210613183</v>
       </c>
     </row>
     <row r="5">
@@ -13467,28 +13467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>825.4464990283103</v>
+        <v>929.6402993349691</v>
       </c>
       <c r="AB5" t="n">
-        <v>1129.41231609995</v>
+        <v>1271.974870385571</v>
       </c>
       <c r="AC5" t="n">
-        <v>1021.622789791512</v>
+        <v>1150.579373983915</v>
       </c>
       <c r="AD5" t="n">
-        <v>825446.4990283103</v>
+        <v>929640.2993349691</v>
       </c>
       <c r="AE5" t="n">
-        <v>1129412.31609995</v>
+        <v>1271974.870385571</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279180055925738e-06</v>
+        <v>1.93321710306858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.23842592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1021622.789791512</v>
+        <v>1150579.373983915</v>
       </c>
     </row>
     <row r="6">
@@ -13573,28 +13573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>791.5288427752148</v>
+        <v>903.6586782304956</v>
       </c>
       <c r="AB6" t="n">
-        <v>1083.004682473078</v>
+        <v>1236.425670162204</v>
       </c>
       <c r="AC6" t="n">
-        <v>979.6442355844648</v>
+        <v>1118.42293953625</v>
       </c>
       <c r="AD6" t="n">
-        <v>791528.8427752148</v>
+        <v>903658.6782304957</v>
       </c>
       <c r="AE6" t="n">
-        <v>1083004.682473078</v>
+        <v>1236425.670162204</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301624863762303e-06</v>
+        <v>1.967137805774762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.78703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>979644.2355844649</v>
+        <v>1118422.93953625</v>
       </c>
     </row>
     <row r="7">
@@ -13679,28 +13679,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>771.784593566165</v>
+        <v>875.8930530182523</v>
       </c>
       <c r="AB7" t="n">
-        <v>1055.989729650457</v>
+        <v>1198.43551681388</v>
       </c>
       <c r="AC7" t="n">
-        <v>955.2075519435105</v>
+        <v>1084.058513103975</v>
       </c>
       <c r="AD7" t="n">
-        <v>771784.593566165</v>
+        <v>875893.0530182524</v>
       </c>
       <c r="AE7" t="n">
-        <v>1055989.729650457</v>
+        <v>1198435.51681388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316240087469833e-06</v>
+        <v>1.989225705211345e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.49768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>955207.5519435104</v>
+        <v>1084058.513103975</v>
       </c>
     </row>
     <row r="8">
@@ -13785,28 +13785,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>751.9146885081373</v>
+        <v>856.0231479602246</v>
       </c>
       <c r="AB8" t="n">
-        <v>1028.802848951719</v>
+        <v>1171.248636115143</v>
       </c>
       <c r="AC8" t="n">
-        <v>930.6153489816336</v>
+        <v>1059.466310142098</v>
       </c>
       <c r="AD8" t="n">
-        <v>751914.6885081372</v>
+        <v>856023.1479602247</v>
       </c>
       <c r="AE8" t="n">
-        <v>1028802.848951719</v>
+        <v>1171248.636115143</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.329405388190505e-06</v>
+        <v>2.009122344783188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.2488425925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>930615.3489816335</v>
+        <v>1059466.310142098</v>
       </c>
     </row>
     <row r="9">
@@ -13891,28 +13891,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>737.8916560811023</v>
+        <v>842.0001155331896</v>
       </c>
       <c r="AB9" t="n">
-        <v>1009.615917332522</v>
+        <v>1152.061704495945</v>
       </c>
       <c r="AC9" t="n">
-        <v>913.2595911871447</v>
+        <v>1042.110552347609</v>
       </c>
       <c r="AD9" t="n">
-        <v>737891.6560811023</v>
+        <v>842000.1155331896</v>
       </c>
       <c r="AE9" t="n">
-        <v>1009615.917332522</v>
+        <v>1152061.704495945</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336770996963744e-06</v>
+        <v>2.020253944896069e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.10995370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>913259.5911871446</v>
+        <v>1042110.552347609</v>
       </c>
     </row>
     <row r="10">
@@ -13997,28 +13997,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>726.3728072206377</v>
+        <v>822.6304828701236</v>
       </c>
       <c r="AB10" t="n">
-        <v>993.8553201458873</v>
+        <v>1125.559318558455</v>
       </c>
       <c r="AC10" t="n">
-        <v>899.0031632758657</v>
+        <v>1018.13751692766</v>
       </c>
       <c r="AD10" t="n">
-        <v>726372.8072206377</v>
+        <v>822630.4828701236</v>
       </c>
       <c r="AE10" t="n">
-        <v>993855.3201458873</v>
+        <v>1125559.318558455</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.340830781326947e-06</v>
+        <v>2.026389472517342e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.02893518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>899003.1632758657</v>
+        <v>1018137.51692766</v>
       </c>
     </row>
     <row r="11">
@@ -14103,28 +14103,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>728.3953348391452</v>
+        <v>824.6530104886313</v>
       </c>
       <c r="AB11" t="n">
-        <v>996.6226316611506</v>
+        <v>1128.326630073718</v>
       </c>
       <c r="AC11" t="n">
-        <v>901.5063664640583</v>
+        <v>1020.640720115853</v>
       </c>
       <c r="AD11" t="n">
-        <v>728395.3348391452</v>
+        <v>824653.0104886312</v>
       </c>
       <c r="AE11" t="n">
-        <v>996622.6316611506</v>
+        <v>1128326.630073718</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.342222707394331e-06</v>
+        <v>2.028493081987493e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.00578703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>901506.3664640583</v>
+        <v>1020640.720115853</v>
       </c>
     </row>
   </sheetData>
@@ -14400,28 +14400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.3819111767496</v>
+        <v>883.5934935332746</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.070517723279</v>
+        <v>1208.971599245993</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.4715069090316</v>
+        <v>1093.589046616251</v>
       </c>
       <c r="AD2" t="n">
-        <v>770381.9111767495</v>
+        <v>883593.4935332746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054070.517723279</v>
+        <v>1208971.599245993</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240307658137113e-06</v>
+        <v>1.960291358015577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>953471.5069090317</v>
+        <v>1093589.046616251</v>
       </c>
     </row>
     <row r="3">
@@ -14506,28 +14506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>637.1206604125094</v>
+        <v>735.2999603493239</v>
       </c>
       <c r="AB3" t="n">
-        <v>871.7365953561861</v>
+        <v>1006.069844894756</v>
       </c>
       <c r="AC3" t="n">
-        <v>788.5392781853868</v>
+        <v>910.0519509258958</v>
       </c>
       <c r="AD3" t="n">
-        <v>637120.6604125095</v>
+        <v>735299.9603493239</v>
       </c>
       <c r="AE3" t="n">
-        <v>871736.595356186</v>
+        <v>1006069.844894756</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382541020223094e-06</v>
+        <v>2.185089478618511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>788539.2781853868</v>
+        <v>910051.9509258957</v>
       </c>
     </row>
     <row r="4">
@@ -14612,28 +14612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>586.4943038428992</v>
+        <v>684.5882629251421</v>
       </c>
       <c r="AB4" t="n">
-        <v>802.4673808204244</v>
+        <v>936.6838632367969</v>
       </c>
       <c r="AC4" t="n">
-        <v>725.8810202649652</v>
+        <v>847.2880699735351</v>
       </c>
       <c r="AD4" t="n">
-        <v>586494.3038428992</v>
+        <v>684588.2629251421</v>
       </c>
       <c r="AE4" t="n">
-        <v>802467.3808204244</v>
+        <v>936683.8632367969</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.43051880769964e-06</v>
+        <v>2.260917795528397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>725881.0202649651</v>
+        <v>847288.0699735351</v>
       </c>
     </row>
     <row r="5">
@@ -14718,28 +14718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>584.3416945910758</v>
+        <v>682.4356536733186</v>
       </c>
       <c r="AB5" t="n">
-        <v>799.5220858756618</v>
+        <v>933.7385682920342</v>
       </c>
       <c r="AC5" t="n">
-        <v>723.2168201359832</v>
+        <v>844.6238698445533</v>
       </c>
       <c r="AD5" t="n">
-        <v>584341.6945910758</v>
+        <v>682435.6536733186</v>
       </c>
       <c r="AE5" t="n">
-        <v>799522.0858756618</v>
+        <v>933738.5682920342</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434611401119555e-06</v>
+        <v>2.267386090277929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.39930555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>723216.8201359832</v>
+        <v>844623.8698445533</v>
       </c>
     </row>
   </sheetData>
@@ -15015,28 +15015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2187.220582178266</v>
+        <v>2373.482008331364</v>
       </c>
       <c r="AB2" t="n">
-        <v>2992.651693898229</v>
+        <v>3247.50279443526</v>
       </c>
       <c r="AC2" t="n">
-        <v>2707.037216445614</v>
+        <v>2937.565685633034</v>
       </c>
       <c r="AD2" t="n">
-        <v>2187220.582178266</v>
+        <v>2373482.008331364</v>
       </c>
       <c r="AE2" t="n">
-        <v>2992651.693898229</v>
+        <v>3247502.79443526</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.175995829423514e-07</v>
+        <v>1.046178592898099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.42013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2707037.216445615</v>
+        <v>2937565.685633034</v>
       </c>
     </row>
     <row r="3">
@@ -15121,28 +15121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1398.21714403354</v>
+        <v>1533.718815126565</v>
       </c>
       <c r="AB3" t="n">
-        <v>1913.102381453576</v>
+        <v>2098.501745754881</v>
       </c>
       <c r="AC3" t="n">
-        <v>1730.518575223702</v>
+        <v>1898.223684405733</v>
       </c>
       <c r="AD3" t="n">
-        <v>1398217.14403354</v>
+        <v>1533718.815126565</v>
       </c>
       <c r="AE3" t="n">
-        <v>1913102.381453576</v>
+        <v>2098501.745754881</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.677472166721056e-07</v>
+        <v>1.410865398315608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.19907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1730518.575223702</v>
+        <v>1898223.684405733</v>
       </c>
     </row>
     <row r="4">
@@ -15227,28 +15227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1213.501634795323</v>
+        <v>1340.443782381336</v>
       </c>
       <c r="AB4" t="n">
-        <v>1660.366472640713</v>
+        <v>1834.054319260199</v>
       </c>
       <c r="AC4" t="n">
-        <v>1501.903426830864</v>
+        <v>1659.014749141409</v>
       </c>
       <c r="AD4" t="n">
-        <v>1213501.634795323</v>
+        <v>1340443.782381336</v>
       </c>
       <c r="AE4" t="n">
-        <v>1660366.472640713</v>
+        <v>1834054.319260199</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064984975285092e-06</v>
+        <v>1.552626993361674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1501903.426830864</v>
+        <v>1659014.749141409</v>
       </c>
     </row>
     <row r="5">
@@ -15333,28 +15333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1126.232290846674</v>
+        <v>1253.174348924135</v>
       </c>
       <c r="AB5" t="n">
-        <v>1540.960706198439</v>
+        <v>1714.648430348376</v>
       </c>
       <c r="AC5" t="n">
-        <v>1393.893579150794</v>
+        <v>1551.004790680113</v>
       </c>
       <c r="AD5" t="n">
-        <v>1126232.290846674</v>
+        <v>1253174.348924135</v>
       </c>
       <c r="AE5" t="n">
-        <v>1540960.706198439</v>
+        <v>1714648.430348376</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.115111416740624e-06</v>
+        <v>1.625705645071468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.93981481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>1393893.579150794</v>
+        <v>1551004.790680113</v>
       </c>
     </row>
     <row r="6">
@@ -15439,28 +15439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1085.132109935186</v>
+        <v>1203.600074868759</v>
       </c>
       <c r="AB6" t="n">
-        <v>1484.725625463331</v>
+        <v>1646.818721523194</v>
       </c>
       <c r="AC6" t="n">
-        <v>1343.025495594613</v>
+        <v>1489.648654065611</v>
       </c>
       <c r="AD6" t="n">
-        <v>1085132.109935186</v>
+        <v>1203600.074868759</v>
       </c>
       <c r="AE6" t="n">
-        <v>1484725.625463331</v>
+        <v>1646818.721523194</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.14612412380656e-06</v>
+        <v>1.670918645484831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1343025.495594613</v>
+        <v>1489648.654065612</v>
       </c>
     </row>
     <row r="7">
@@ -15545,28 +15545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.205788916328</v>
+        <v>1166.759005195921</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.201403971019</v>
+        <v>1596.411144683531</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.323234890337</v>
+        <v>1444.051905612048</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048205.788916328</v>
+        <v>1166759.005195921</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434201.403971019</v>
+        <v>1596411.144683531</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.167660725935682e-06</v>
+        <v>1.702316562438555e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.68402777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297323.234890337</v>
+        <v>1444051.905612048</v>
       </c>
     </row>
     <row r="8">
@@ -15651,28 +15651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1025.687049142165</v>
+        <v>1135.766172277869</v>
       </c>
       <c r="AB8" t="n">
-        <v>1403.390270755326</v>
+        <v>1554.005383377764</v>
       </c>
       <c r="AC8" t="n">
-        <v>1269.452672985052</v>
+        <v>1405.693290648443</v>
       </c>
       <c r="AD8" t="n">
-        <v>1025687.049142165</v>
+        <v>1135766.172277869</v>
       </c>
       <c r="AE8" t="n">
-        <v>1403390.270755326</v>
+        <v>1554005.383377764</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.184028543553815e-06</v>
+        <v>1.726178979323386e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.31365740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1269452.672985052</v>
+        <v>1405693.290648443</v>
       </c>
     </row>
     <row r="9">
@@ -15757,28 +15757,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1008.953830443963</v>
+        <v>1119.032953579667</v>
       </c>
       <c r="AB9" t="n">
-        <v>1380.495142714938</v>
+        <v>1531.110255337376</v>
       </c>
       <c r="AC9" t="n">
-        <v>1248.742623831325</v>
+        <v>1384.983241494717</v>
       </c>
       <c r="AD9" t="n">
-        <v>1008953.830443963</v>
+        <v>1119032.953579667</v>
       </c>
       <c r="AE9" t="n">
-        <v>1380495.142714938</v>
+        <v>1531110.255337376</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.195712150208864e-06</v>
+        <v>1.743212349270782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.05902777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1248742.623831325</v>
+        <v>1384983.241494717</v>
       </c>
     </row>
     <row r="10">
@@ -15863,28 +15863,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>986.9967466856182</v>
+        <v>1105.464622110639</v>
       </c>
       <c r="AB10" t="n">
-        <v>1350.452492038601</v>
+        <v>1512.545465628915</v>
       </c>
       <c r="AC10" t="n">
-        <v>1221.567201570413</v>
+        <v>1368.190249260185</v>
       </c>
       <c r="AD10" t="n">
-        <v>986996.7466856182</v>
+        <v>1105464.622110639</v>
       </c>
       <c r="AE10" t="n">
-        <v>1350452.492038601</v>
+        <v>1512545.465628915</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.204380632565836e-06</v>
+        <v>1.755850010844656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.8738425925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1221567.201570413</v>
+        <v>1368190.249260185</v>
       </c>
     </row>
     <row r="11">
@@ -15969,28 +15969,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>973.5294226445918</v>
+        <v>1083.693797126316</v>
       </c>
       <c r="AB11" t="n">
-        <v>1332.025905149264</v>
+        <v>1482.757662424352</v>
       </c>
       <c r="AC11" t="n">
-        <v>1204.899222271917</v>
+        <v>1341.24535218602</v>
       </c>
       <c r="AD11" t="n">
-        <v>973529.4226445918</v>
+        <v>1083693.797126316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1332025.905149264</v>
+        <v>1482757.662424352</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212833748901516e-06</v>
+        <v>1.768173693248993e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.68865740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1204899.222271917</v>
+        <v>1341245.35218602</v>
       </c>
     </row>
     <row r="12">
@@ -16075,28 +16075,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>963.5066716834334</v>
+        <v>1073.671046165158</v>
       </c>
       <c r="AB12" t="n">
-        <v>1318.312335111641</v>
+        <v>1469.044092386729</v>
       </c>
       <c r="AC12" t="n">
-        <v>1192.494456111569</v>
+        <v>1328.840586025672</v>
       </c>
       <c r="AD12" t="n">
-        <v>963506.6716834335</v>
+        <v>1073671.046165158</v>
       </c>
       <c r="AE12" t="n">
-        <v>1318312.335111642</v>
+        <v>1469044.092386729</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.218487106960411e-06</v>
+        <v>1.776415646449346e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1192494.456111569</v>
+        <v>1328840.586025672</v>
       </c>
     </row>
     <row r="13">
@@ -16181,28 +16181,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>953.8902995921997</v>
+        <v>1063.884081873332</v>
       </c>
       <c r="AB13" t="n">
-        <v>1305.15479057202</v>
+        <v>1455.653136072261</v>
       </c>
       <c r="AC13" t="n">
-        <v>1180.592649156079</v>
+        <v>1316.727643787532</v>
       </c>
       <c r="AD13" t="n">
-        <v>953890.2995921996</v>
+        <v>1063884.081873332</v>
       </c>
       <c r="AE13" t="n">
-        <v>1305154.79057202</v>
+        <v>1455653.136072261</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.223494366955432e-06</v>
+        <v>1.783715662141086e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1180592.649156079</v>
+        <v>1316727.643787532</v>
       </c>
     </row>
     <row r="14">
@@ -16287,28 +16287,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>943.5893672204153</v>
+        <v>1053.583149501547</v>
       </c>
       <c r="AB14" t="n">
-        <v>1291.060600455882</v>
+        <v>1441.558945956123</v>
       </c>
       <c r="AC14" t="n">
-        <v>1167.843588763305</v>
+        <v>1303.978583394757</v>
       </c>
       <c r="AD14" t="n">
-        <v>943589.3672204153</v>
+        <v>1053583.149501547</v>
       </c>
       <c r="AE14" t="n">
-        <v>1291060.600455882</v>
+        <v>1441558.945956123</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.228555468455775e-06</v>
+        <v>1.791094172625212e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.35879629629629</v>
       </c>
       <c r="AH14" t="n">
-        <v>1167843.588763305</v>
+        <v>1303978.583394757</v>
       </c>
     </row>
     <row r="15">
@@ -16393,28 +16393,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>935.1410473312483</v>
+        <v>1045.13482961238</v>
       </c>
       <c r="AB15" t="n">
-        <v>1279.501236469955</v>
+        <v>1429.999581970196</v>
       </c>
       <c r="AC15" t="n">
-        <v>1157.387434252526</v>
+        <v>1293.522428883978</v>
       </c>
       <c r="AD15" t="n">
-        <v>935141.0473312483</v>
+        <v>1045134.82961238</v>
       </c>
       <c r="AE15" t="n">
-        <v>1279501.236469955</v>
+        <v>1429999.581970196</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.232001324796435e-06</v>
+        <v>1.796117839337807e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.28935185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>1157387.434252526</v>
+        <v>1293522.428883978</v>
       </c>
     </row>
     <row r="16">
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>926.3985982627519</v>
+        <v>1036.392380543884</v>
       </c>
       <c r="AB16" t="n">
-        <v>1267.539431964806</v>
+        <v>1418.037777465046</v>
       </c>
       <c r="AC16" t="n">
-        <v>1146.56724758085</v>
+        <v>1282.702242212302</v>
       </c>
       <c r="AD16" t="n">
-        <v>926398.5982627518</v>
+        <v>1036392.380543884</v>
       </c>
       <c r="AE16" t="n">
-        <v>1267539.431964806</v>
+        <v>1418037.777465046</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.235877913179677e-06</v>
+        <v>1.801769464389478e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.21412037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>1146567.24758085</v>
+        <v>1282702.242212302</v>
       </c>
     </row>
     <row r="17">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>919.1622313461263</v>
+        <v>1029.156013627258</v>
       </c>
       <c r="AB17" t="n">
-        <v>1257.638315503502</v>
+        <v>1408.136661003742</v>
       </c>
       <c r="AC17" t="n">
-        <v>1137.611079778309</v>
+        <v>1273.746074409761</v>
       </c>
       <c r="AD17" t="n">
-        <v>919162.2313461263</v>
+        <v>1029156.013627258</v>
       </c>
       <c r="AE17" t="n">
-        <v>1257638.315503502</v>
+        <v>1408136.661003742</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.237385475328715e-06</v>
+        <v>1.803967318576239e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.17939814814815</v>
       </c>
       <c r="AH17" t="n">
-        <v>1137611.079778309</v>
+        <v>1273746.074409761</v>
       </c>
     </row>
     <row r="18">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>911.0374676812673</v>
+        <v>1021.031249962399</v>
       </c>
       <c r="AB18" t="n">
-        <v>1246.521655417966</v>
+        <v>1397.020000918207</v>
       </c>
       <c r="AC18" t="n">
-        <v>1127.555378129006</v>
+        <v>1263.690372760458</v>
       </c>
       <c r="AD18" t="n">
-        <v>911037.4676812673</v>
+        <v>1021031.249962399</v>
       </c>
       <c r="AE18" t="n">
-        <v>1246521.655417966</v>
+        <v>1397020.000918207</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.241046697690666e-06</v>
+        <v>1.809304964458372e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1127555.378129006</v>
+        <v>1263690.372760458</v>
       </c>
     </row>
     <row r="19">
@@ -16817,28 +16817,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>903.1222593265628</v>
+        <v>1004.812540664398</v>
       </c>
       <c r="AB19" t="n">
-        <v>1235.691718152712</v>
+        <v>1374.828847337726</v>
       </c>
       <c r="AC19" t="n">
-        <v>1117.759034876435</v>
+        <v>1243.617111732219</v>
       </c>
       <c r="AD19" t="n">
-        <v>903122.2593265629</v>
+        <v>1004812.540664398</v>
       </c>
       <c r="AE19" t="n">
-        <v>1235691.718152712</v>
+        <v>1374828.847337726</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.242715784355673e-06</v>
+        <v>1.811738303022286e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.07523148148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>1117759.034876435</v>
+        <v>1243617.111732219</v>
       </c>
     </row>
     <row r="20">
@@ -16923,28 +16923,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>895.7904237782703</v>
+        <v>997.4807051161052</v>
       </c>
       <c r="AB20" t="n">
-        <v>1225.659977297782</v>
+        <v>1364.797106482796</v>
       </c>
       <c r="AC20" t="n">
-        <v>1108.684709289063</v>
+        <v>1234.542786144847</v>
       </c>
       <c r="AD20" t="n">
-        <v>895790.4237782704</v>
+        <v>997480.7051161053</v>
       </c>
       <c r="AE20" t="n">
-        <v>1225659.977297782</v>
+        <v>1364797.106482796</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.244869444568586e-06</v>
+        <v>1.814878094717658e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.02893518518519</v>
       </c>
       <c r="AH20" t="n">
-        <v>1108684.709289063</v>
+        <v>1234542.786144847</v>
       </c>
     </row>
     <row r="21">
@@ -17029,28 +17029,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>891.291428554345</v>
+        <v>992.9817098921798</v>
       </c>
       <c r="AB21" t="n">
-        <v>1219.504253550746</v>
+        <v>1358.64138273576</v>
       </c>
       <c r="AC21" t="n">
-        <v>1103.116479176832</v>
+        <v>1228.974556032616</v>
       </c>
       <c r="AD21" t="n">
-        <v>891291.4285543449</v>
+        <v>992981.7098921798</v>
       </c>
       <c r="AE21" t="n">
-        <v>1219504.253550746</v>
+        <v>1358641.38273576</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.246000116180364e-06</v>
+        <v>1.816526485357728e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.00578703703704</v>
       </c>
       <c r="AH21" t="n">
-        <v>1103116.479176832</v>
+        <v>1228974.556032615</v>
       </c>
     </row>
     <row r="22">
@@ -17135,28 +17135,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>892.1629219810745</v>
+        <v>993.8532033189096</v>
       </c>
       <c r="AB22" t="n">
-        <v>1220.696669304774</v>
+        <v>1359.833798489788</v>
       </c>
       <c r="AC22" t="n">
-        <v>1104.195092444861</v>
+        <v>1230.053169300645</v>
       </c>
       <c r="AD22" t="n">
-        <v>892162.9219810745</v>
+        <v>993853.2033189095</v>
       </c>
       <c r="AE22" t="n">
-        <v>1220696.669304774</v>
+        <v>1359833.798489788</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.245569384137782e-06</v>
+        <v>1.815898527018654e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>1104195.092444861</v>
+        <v>1230053.169300645</v>
       </c>
     </row>
     <row r="23">
@@ -17241,28 +17241,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>895.2599362446524</v>
+        <v>996.9502175824874</v>
       </c>
       <c r="AB23" t="n">
-        <v>1224.934140850828</v>
+        <v>1364.071270035842</v>
       </c>
       <c r="AC23" t="n">
-        <v>1108.028145653888</v>
+        <v>1233.886222509672</v>
       </c>
       <c r="AD23" t="n">
-        <v>895259.9362446524</v>
+        <v>996950.2175824874</v>
       </c>
       <c r="AE23" t="n">
-        <v>1224934.140850828</v>
+        <v>1364071.270035842</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.245623225643105e-06</v>
+        <v>1.815977021811038e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>1108028.145653888</v>
+        <v>1233886.222509672</v>
       </c>
     </row>
   </sheetData>
@@ -17538,28 +17538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>665.1882737358433</v>
+        <v>769.1980901244357</v>
       </c>
       <c r="AB2" t="n">
-        <v>910.1399421608793</v>
+        <v>1052.450761533004</v>
       </c>
       <c r="AC2" t="n">
-        <v>823.2774634704761</v>
+        <v>952.0063379762148</v>
       </c>
       <c r="AD2" t="n">
-        <v>665188.2737358432</v>
+        <v>769198.0901244357</v>
       </c>
       <c r="AE2" t="n">
-        <v>910139.9421608793</v>
+        <v>1052450.761533004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316925878961447e-06</v>
+        <v>2.110024600927266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.31597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>823277.4634704761</v>
+        <v>952006.3379762148</v>
       </c>
     </row>
     <row r="3">
@@ -17644,28 +17644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.3515716381218</v>
+        <v>658.2759576635917</v>
       </c>
       <c r="AB3" t="n">
-        <v>758.488276580583</v>
+        <v>900.682206360962</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.0992200087137</v>
+        <v>814.7223607012871</v>
       </c>
       <c r="AD3" t="n">
-        <v>554351.5716381217</v>
+        <v>658275.9576635917</v>
       </c>
       <c r="AE3" t="n">
-        <v>758488.2765805831</v>
+        <v>900682.206360962</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441672356193532e-06</v>
+        <v>2.309897760110904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.86226851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>686099.2200087137</v>
+        <v>814722.3607012872</v>
       </c>
     </row>
     <row r="4">
@@ -17750,28 +17750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.5422537246898</v>
+        <v>643.2019594782593</v>
       </c>
       <c r="AB4" t="n">
-        <v>747.8032232886344</v>
+        <v>880.0572970259248</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.4339332063822</v>
+        <v>796.0658637659438</v>
       </c>
       <c r="AD4" t="n">
-        <v>546542.2537246898</v>
+        <v>643201.9594782592</v>
       </c>
       <c r="AE4" t="n">
-        <v>747803.2232886344</v>
+        <v>880057.2970259248</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454237213146144e-06</v>
+        <v>2.330029612404711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>676433.9332063822</v>
+        <v>796065.8637659438</v>
       </c>
     </row>
   </sheetData>
@@ -18047,28 +18047,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1631.917224926138</v>
+        <v>1788.263017197602</v>
       </c>
       <c r="AB2" t="n">
-        <v>2232.861142250746</v>
+        <v>2446.780352726119</v>
       </c>
       <c r="AC2" t="n">
-        <v>2019.76000867463</v>
+        <v>2213.26306993973</v>
       </c>
       <c r="AD2" t="n">
-        <v>1631917.224926138</v>
+        <v>1788263.017197602</v>
       </c>
       <c r="AE2" t="n">
-        <v>2232861.142250746</v>
+        <v>2446780.352726119</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.510631367953576e-07</v>
+        <v>1.263695308998256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.06134259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>2019760.00867463</v>
+        <v>2213263.06993973</v>
       </c>
     </row>
     <row r="3">
@@ -18153,28 +18153,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1143.681059358156</v>
+        <v>1267.094000341728</v>
       </c>
       <c r="AB3" t="n">
-        <v>1564.834881061187</v>
+        <v>1733.693911509607</v>
       </c>
       <c r="AC3" t="n">
-        <v>1415.489236272256</v>
+        <v>1568.232597849817</v>
       </c>
       <c r="AD3" t="n">
-        <v>1143681.059358156</v>
+        <v>1267094.000341728</v>
       </c>
       <c r="AE3" t="n">
-        <v>1564834.881061187</v>
+        <v>1733693.911509607</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075807841756773e-06</v>
+        <v>1.597405955251084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.10995370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1415489.236272256</v>
+        <v>1568232.597849817</v>
       </c>
     </row>
     <row r="4">
@@ -18259,28 +18259,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1013.122357467707</v>
+        <v>1136.449868088158</v>
       </c>
       <c r="AB4" t="n">
-        <v>1386.198705291258</v>
+        <v>1554.940846147932</v>
       </c>
       <c r="AC4" t="n">
-        <v>1253.901846400361</v>
+        <v>1406.539474164757</v>
       </c>
       <c r="AD4" t="n">
-        <v>1013122.357467707</v>
+        <v>1136449.868088158</v>
       </c>
       <c r="AE4" t="n">
-        <v>1386198.705291257</v>
+        <v>1554940.846147932</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158764666850875e-06</v>
+        <v>1.720583832647521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.95717592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1253901.846400361</v>
+        <v>1406539.474164757</v>
       </c>
     </row>
     <row r="5">
@@ -18365,28 +18365,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>953.8011869405971</v>
+        <v>1068.980825593646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1305.032862710725</v>
+        <v>1462.626725682859</v>
       </c>
       <c r="AC5" t="n">
-        <v>1180.482357918739</v>
+        <v>1323.035683793189</v>
       </c>
       <c r="AD5" t="n">
-        <v>953801.186940597</v>
+        <v>1068980.825593646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1305032.862710725</v>
+        <v>1462626.725682859</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.20225822494677e-06</v>
+        <v>1.785164946505166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1180482.357918739</v>
+        <v>1323035.683793189</v>
       </c>
     </row>
     <row r="6">
@@ -18471,28 +18471,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>920.8015184978881</v>
+        <v>1027.748033837515</v>
       </c>
       <c r="AB6" t="n">
-        <v>1259.881260504787</v>
+        <v>1406.210200939732</v>
       </c>
       <c r="AC6" t="n">
-        <v>1139.639961256664</v>
+        <v>1272.003472990456</v>
       </c>
       <c r="AD6" t="n">
-        <v>920801.5184978881</v>
+        <v>1027748.033837515</v>
       </c>
       <c r="AE6" t="n">
-        <v>1259881.260504787</v>
+        <v>1406210.200939732</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230190381304366e-06</v>
+        <v>1.826639818853899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.33101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1139639.961256664</v>
+        <v>1272003.472990456</v>
       </c>
     </row>
     <row r="7">
@@ -18577,28 +18577,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>891.4620370671989</v>
+        <v>1006.556334865676</v>
       </c>
       <c r="AB7" t="n">
-        <v>1219.737687644749</v>
+        <v>1377.214783494685</v>
       </c>
       <c r="AC7" t="n">
-        <v>1103.32763464853</v>
+        <v>1245.775337491041</v>
       </c>
       <c r="AD7" t="n">
-        <v>891462.0370671989</v>
+        <v>1006556.334865676</v>
       </c>
       <c r="AE7" t="n">
-        <v>1219737.687644749</v>
+        <v>1377214.783494685</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246311545695122e-06</v>
+        <v>1.85057722012932e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1103327.63464853</v>
+        <v>1245775.337491041</v>
       </c>
     </row>
     <row r="8">
@@ -18683,28 +18683,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>872.2707533466993</v>
+        <v>979.3025200323469</v>
       </c>
       <c r="AB8" t="n">
-        <v>1193.479326598678</v>
+        <v>1339.924911686272</v>
       </c>
       <c r="AC8" t="n">
-        <v>1079.575334726855</v>
+        <v>1212.044358711358</v>
       </c>
       <c r="AD8" t="n">
-        <v>872270.7533466993</v>
+        <v>979302.5200323469</v>
       </c>
       <c r="AE8" t="n">
-        <v>1193479.326598678</v>
+        <v>1339924.911686272</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.26047354080228e-06</v>
+        <v>1.871605562221964e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.70023148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>1079575.334726855</v>
+        <v>1212044.358711358</v>
       </c>
     </row>
     <row r="9">
@@ -18789,28 +18789,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>857.3568029916162</v>
+        <v>964.2179774766716</v>
       </c>
       <c r="AB9" t="n">
-        <v>1173.0734017658</v>
+        <v>1319.285575078547</v>
       </c>
       <c r="AC9" t="n">
-        <v>1061.116922720131</v>
+        <v>1193.374811421984</v>
       </c>
       <c r="AD9" t="n">
-        <v>857356.8029916162</v>
+        <v>964217.9774766717</v>
       </c>
       <c r="AE9" t="n">
-        <v>1173073.4017658</v>
+        <v>1319285.575078547</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.27032536348552e-06</v>
+        <v>1.886233974112499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.49768518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>1061116.922720131</v>
+        <v>1193374.811421984</v>
       </c>
     </row>
     <row r="10">
@@ -18895,28 +18895,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>845.366856062756</v>
+        <v>952.2280305478115</v>
       </c>
       <c r="AB10" t="n">
-        <v>1156.668227418607</v>
+        <v>1302.880400731354</v>
       </c>
       <c r="AC10" t="n">
-        <v>1046.277435187828</v>
+        <v>1178.53532388968</v>
       </c>
       <c r="AD10" t="n">
-        <v>845366.856062756</v>
+        <v>952228.0305478115</v>
       </c>
       <c r="AE10" t="n">
-        <v>1156668.227418607</v>
+        <v>1302880.400731354</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.276202871336317e-06</v>
+        <v>1.894961151660829e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.38194444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1046277.435187828</v>
+        <v>1178535.32388968</v>
       </c>
     </row>
     <row r="11">
@@ -19001,28 +19001,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>832.9501237485091</v>
+        <v>939.8112982335645</v>
       </c>
       <c r="AB11" t="n">
-        <v>1139.679106478686</v>
+        <v>1285.891279791432</v>
       </c>
       <c r="AC11" t="n">
-        <v>1030.909732106031</v>
+        <v>1163.167620807884</v>
       </c>
       <c r="AD11" t="n">
-        <v>832950.1237485091</v>
+        <v>939811.2982335645</v>
       </c>
       <c r="AE11" t="n">
-        <v>1139679.106478686</v>
+        <v>1285891.279791432</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.282696118104816e-06</v>
+        <v>1.904602604952318e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.25462962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1030909.732106031</v>
+        <v>1163167.620807884</v>
       </c>
     </row>
     <row r="12">
@@ -19107,28 +19107,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>817.2100682067984</v>
+        <v>924.0712426918539</v>
       </c>
       <c r="AB12" t="n">
-        <v>1118.142868084275</v>
+        <v>1264.355041397022</v>
       </c>
       <c r="AC12" t="n">
-        <v>1011.428882077683</v>
+        <v>1143.686770779535</v>
       </c>
       <c r="AD12" t="n">
-        <v>817210.0682067984</v>
+        <v>924071.2426918539</v>
       </c>
       <c r="AE12" t="n">
-        <v>1118142.868084275</v>
+        <v>1264355.041397022</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.290140961382492e-06</v>
+        <v>1.91565702984687e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.10995370370371</v>
       </c>
       <c r="AH12" t="n">
-        <v>1011428.882077683</v>
+        <v>1143686.770779535</v>
       </c>
     </row>
     <row r="13">
@@ -19213,28 +19213,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>809.044246267421</v>
+        <v>907.842889639647</v>
       </c>
       <c r="AB13" t="n">
-        <v>1106.97003025618</v>
+        <v>1242.150692806584</v>
       </c>
       <c r="AC13" t="n">
-        <v>1001.322364210725</v>
+        <v>1123.60157405457</v>
       </c>
       <c r="AD13" t="n">
-        <v>809044.2462674211</v>
+        <v>907842.889639647</v>
       </c>
       <c r="AE13" t="n">
-        <v>1106970.03025618</v>
+        <v>1242150.692806584</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.292995750910021e-06</v>
+        <v>1.919895944656059e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1001322.364210725</v>
+        <v>1123601.57405457</v>
       </c>
     </row>
     <row r="14">
@@ -19319,28 +19319,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>791.7700124503999</v>
+        <v>898.7164382814758</v>
       </c>
       <c r="AB14" t="n">
-        <v>1083.334661462321</v>
+        <v>1229.663479427717</v>
       </c>
       <c r="AC14" t="n">
-        <v>979.9427218421033</v>
+        <v>1112.306122794668</v>
       </c>
       <c r="AD14" t="n">
-        <v>791770.0124503999</v>
+        <v>898716.4382814758</v>
       </c>
       <c r="AE14" t="n">
-        <v>1083334.661462321</v>
+        <v>1229663.479427717</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.296186398029025e-06</v>
+        <v>1.924633555325153e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>979942.7218421033</v>
+        <v>1112306.122794668</v>
       </c>
     </row>
     <row r="15">
@@ -19425,28 +19425,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>790.1045496199704</v>
+        <v>897.0509754510464</v>
       </c>
       <c r="AB15" t="n">
-        <v>1081.055901742693</v>
+        <v>1227.384719708089</v>
       </c>
       <c r="AC15" t="n">
-        <v>977.8814437518572</v>
+        <v>1110.244844704422</v>
       </c>
       <c r="AD15" t="n">
-        <v>790104.5496199704</v>
+        <v>897050.9754510464</v>
       </c>
       <c r="AE15" t="n">
-        <v>1081055.901742693</v>
+        <v>1227384.719708089</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.297473852129676e-06</v>
+        <v>1.92654522278812e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.96527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>977881.4437518572</v>
+        <v>1110244.844704422</v>
       </c>
     </row>
   </sheetData>
@@ -19722,28 +19722,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1890.268176769694</v>
+        <v>2065.711464469704</v>
       </c>
       <c r="AB2" t="n">
-        <v>2586.34831220269</v>
+        <v>2826.397558445433</v>
       </c>
       <c r="AC2" t="n">
-        <v>2339.510859248719</v>
+        <v>2556.650142341288</v>
       </c>
       <c r="AD2" t="n">
-        <v>1890268.176769694</v>
+        <v>2065711.464469703</v>
       </c>
       <c r="AE2" t="n">
-        <v>2586348.31220269</v>
+        <v>2826397.558445433</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.811108618737878e-07</v>
+        <v>1.148578592218479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.63657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2339510.85924872</v>
+        <v>2556650.142341288</v>
       </c>
     </row>
     <row r="3">
@@ -19828,28 +19828,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1267.155097850664</v>
+        <v>1400.720603596419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1733.777507816764</v>
+        <v>1916.527725272348</v>
       </c>
       <c r="AC3" t="n">
-        <v>1568.308215842747</v>
+        <v>1733.617009035911</v>
       </c>
       <c r="AD3" t="n">
-        <v>1267155.097850664</v>
+        <v>1400720.603596419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1733777.507816764</v>
+        <v>1916527.725272348</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020566698339239e-06</v>
+        <v>1.500684626035771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1568308.215842747</v>
+        <v>1733617.009035911</v>
       </c>
     </row>
     <row r="4">
@@ -19934,28 +19934,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1112.838479790091</v>
+        <v>1238.13073076022</v>
       </c>
       <c r="AB4" t="n">
-        <v>1522.634703017582</v>
+        <v>1694.065088298913</v>
       </c>
       <c r="AC4" t="n">
-        <v>1377.316583992811</v>
+        <v>1532.385893906949</v>
       </c>
       <c r="AD4" t="n">
-        <v>1112838.479790091</v>
+        <v>1238130.73076022</v>
       </c>
       <c r="AE4" t="n">
-        <v>1522634.703017582</v>
+        <v>1694065.088298914</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109910160914187e-06</v>
+        <v>1.632059048639612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1377316.583992811</v>
+        <v>1532385.893906949</v>
       </c>
     </row>
     <row r="5">
@@ -20040,28 +20040,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1043.461617501051</v>
+        <v>1160.310111003513</v>
       </c>
       <c r="AB5" t="n">
-        <v>1427.710219342567</v>
+        <v>1587.587483144347</v>
       </c>
       <c r="AC5" t="n">
-        <v>1291.451559812389</v>
+        <v>1436.070361946077</v>
       </c>
       <c r="AD5" t="n">
-        <v>1043461.617501051</v>
+        <v>1160310.111003513</v>
       </c>
       <c r="AE5" t="n">
-        <v>1427710.219342567</v>
+        <v>1587587.483144347</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157735513501881e-06</v>
+        <v>1.702383478664504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.41319444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1291451.559812389</v>
+        <v>1436070.361946077</v>
       </c>
     </row>
     <row r="6">
@@ -20146,28 +20146,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>999.3728965627475</v>
+        <v>1116.30664141123</v>
       </c>
       <c r="AB6" t="n">
-        <v>1367.386086297687</v>
+        <v>1527.379994752117</v>
       </c>
       <c r="AC6" t="n">
-        <v>1236.884677359861</v>
+        <v>1381.60899174426</v>
       </c>
       <c r="AD6" t="n">
-        <v>999372.8965627475</v>
+        <v>1116306.64141123</v>
       </c>
       <c r="AE6" t="n">
-        <v>1367386.086297687</v>
+        <v>1527379.994752117</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.186200373585612e-06</v>
+        <v>1.744239418094457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.75925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1236884.677359861</v>
+        <v>1381608.99174426</v>
       </c>
     </row>
     <row r="7">
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>975.0247583607033</v>
+        <v>1083.60008659609</v>
       </c>
       <c r="AB7" t="n">
-        <v>1334.071889445603</v>
+        <v>1482.629443542679</v>
       </c>
       <c r="AC7" t="n">
-        <v>1206.749940698571</v>
+        <v>1341.129370334459</v>
       </c>
       <c r="AD7" t="n">
-        <v>975024.7583607034</v>
+        <v>1083600.08659609</v>
       </c>
       <c r="AE7" t="n">
-        <v>1334071.889445603</v>
+        <v>1482629.443542679</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.205451174913915e-06</v>
+        <v>1.772546614125119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.33101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1206749.940698571</v>
+        <v>1341129.370334459</v>
       </c>
     </row>
     <row r="8">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>954.5213274684821</v>
+        <v>1063.096655703869</v>
       </c>
       <c r="AB8" t="n">
-        <v>1306.018190751335</v>
+        <v>1454.575744848411</v>
       </c>
       <c r="AC8" t="n">
-        <v>1181.37364763407</v>
+        <v>1315.753077269958</v>
       </c>
       <c r="AD8" t="n">
-        <v>954521.3274684821</v>
+        <v>1063096.655703869</v>
       </c>
       <c r="AE8" t="n">
-        <v>1306018.190751335</v>
+        <v>1454575.744848411</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.220643402742804e-06</v>
+        <v>1.794885911277521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.00115740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>1181373.64763407</v>
+        <v>1315753.077269958</v>
       </c>
     </row>
     <row r="9">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>929.3823263561058</v>
+        <v>1046.230730350016</v>
       </c>
       <c r="AB9" t="n">
-        <v>1271.621900374926</v>
+        <v>1431.499041707158</v>
       </c>
       <c r="AC9" t="n">
-        <v>1150.260090935689</v>
+        <v>1294.87878228815</v>
       </c>
       <c r="AD9" t="n">
-        <v>929382.3263561057</v>
+        <v>1046230.730350016</v>
       </c>
       <c r="AE9" t="n">
-        <v>1271621.900374926</v>
+        <v>1431499.041707158</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.231831902660109e-06</v>
+        <v>1.811337956833804e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.76388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1150260.090935689</v>
+        <v>1294878.782288149</v>
       </c>
     </row>
     <row r="10">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>916.4902863277613</v>
+        <v>1025.150865909168</v>
       </c>
       <c r="AB10" t="n">
-        <v>1253.98244245148</v>
+        <v>1402.656641201205</v>
       </c>
       <c r="AC10" t="n">
-        <v>1134.304118119322</v>
+        <v>1268.789060005921</v>
       </c>
       <c r="AD10" t="n">
-        <v>916490.2863277612</v>
+        <v>1025150.865909168</v>
       </c>
       <c r="AE10" t="n">
-        <v>1253982.44245148</v>
+        <v>1402656.641201205</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240278123185918e-06</v>
+        <v>1.823757638283154e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.59027777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1134304.118119322</v>
+        <v>1268789.060005921</v>
       </c>
     </row>
     <row r="11">
@@ -20676,28 +20676,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>904.8055058707004</v>
+        <v>1013.295493251515</v>
       </c>
       <c r="AB11" t="n">
-        <v>1237.994810333997</v>
+        <v>1386.435597308875</v>
       </c>
       <c r="AC11" t="n">
-        <v>1119.842323172349</v>
+        <v>1254.116129776298</v>
       </c>
       <c r="AD11" t="n">
-        <v>904805.5058707003</v>
+        <v>1013295.493251515</v>
       </c>
       <c r="AE11" t="n">
-        <v>1237994.810333997</v>
+        <v>1386435.597308875</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.246749902549849e-06</v>
+        <v>1.833274017575513e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.45717592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>1119842.323172349</v>
+        <v>1254116.129776298</v>
       </c>
     </row>
     <row r="12">
@@ -20782,28 +20782,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>894.8776064008327</v>
+        <v>1003.367593781648</v>
       </c>
       <c r="AB12" t="n">
-        <v>1224.411020291311</v>
+        <v>1372.85180726619</v>
       </c>
       <c r="AC12" t="n">
-        <v>1107.554950986368</v>
+        <v>1241.828757590317</v>
       </c>
       <c r="AD12" t="n">
-        <v>894877.6064008328</v>
+        <v>1003367.593781648</v>
       </c>
       <c r="AE12" t="n">
-        <v>1224411.020291311</v>
+        <v>1372851.807266189</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.251631159866712e-06</v>
+        <v>1.840451625685851e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.35879629629629</v>
       </c>
       <c r="AH12" t="n">
-        <v>1107554.950986368</v>
+        <v>1241828.757590317</v>
       </c>
     </row>
     <row r="13">
@@ -20888,28 +20888,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>883.0299398500239</v>
+        <v>991.5199272308388</v>
       </c>
       <c r="AB13" t="n">
-        <v>1208.200520234335</v>
+        <v>1356.641307209214</v>
       </c>
       <c r="AC13" t="n">
-        <v>1092.89155830325</v>
+        <v>1227.165364907199</v>
       </c>
       <c r="AD13" t="n">
-        <v>883029.9398500238</v>
+        <v>991519.9272308388</v>
       </c>
       <c r="AE13" t="n">
-        <v>1208200.520234335</v>
+        <v>1356641.307209214</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.257060873061874e-06</v>
+        <v>1.848435706617577e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.2488425925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1092891.55830325</v>
+        <v>1227165.364907199</v>
       </c>
     </row>
     <row r="14">
@@ -20994,28 +20994,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>873.1194485232692</v>
+        <v>981.6094359040841</v>
       </c>
       <c r="AB14" t="n">
-        <v>1194.64054878105</v>
+        <v>1343.081335755928</v>
       </c>
       <c r="AC14" t="n">
-        <v>1080.625731493927</v>
+        <v>1214.899538097875</v>
       </c>
       <c r="AD14" t="n">
-        <v>873119.4485232692</v>
+        <v>981609.4359040841</v>
       </c>
       <c r="AE14" t="n">
-        <v>1194640.54878105</v>
+        <v>1343081.335755928</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.26002253480469e-06</v>
+        <v>1.852790659853063e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.19097222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1080625.731493927</v>
+        <v>1214899.538097875</v>
       </c>
     </row>
     <row r="15">
@@ -21100,28 +21100,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>865.3525240961858</v>
+        <v>973.8425114770007</v>
       </c>
       <c r="AB15" t="n">
-        <v>1184.013500127392</v>
+        <v>1332.45428710227</v>
       </c>
       <c r="AC15" t="n">
-        <v>1071.012913448617</v>
+        <v>1205.286720052566</v>
       </c>
       <c r="AD15" t="n">
-        <v>865352.5240961858</v>
+        <v>973842.5114770007</v>
       </c>
       <c r="AE15" t="n">
-        <v>1184013.500127392</v>
+        <v>1332454.28710227</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.262929350959676e-06</v>
+        <v>1.857064965806411e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.13310185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>1071012.913448617</v>
+        <v>1205286.720052566</v>
       </c>
     </row>
     <row r="16">
@@ -21206,28 +21206,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>854.9114320671753</v>
+        <v>955.2135950354867</v>
       </c>
       <c r="AB16" t="n">
-        <v>1169.727537384829</v>
+        <v>1306.9653817772</v>
       </c>
       <c r="AC16" t="n">
-        <v>1058.09038293973</v>
+        <v>1182.230440077818</v>
       </c>
       <c r="AD16" t="n">
-        <v>854911.4320671753</v>
+        <v>955213.5950354867</v>
       </c>
       <c r="AE16" t="n">
-        <v>1169727.537384829</v>
+        <v>1306965.3817772</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.26753638033739e-06</v>
+        <v>1.863839337506057e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.04050925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>1058090.38293973</v>
+        <v>1182230.440077818</v>
       </c>
     </row>
     <row r="17">
@@ -21312,28 +21312,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>836.4226279716061</v>
+        <v>944.9978666984416</v>
       </c>
       <c r="AB17" t="n">
-        <v>1144.430339952801</v>
+        <v>1292.987771580329</v>
       </c>
       <c r="AC17" t="n">
-        <v>1035.207514525775</v>
+        <v>1169.586833380436</v>
       </c>
       <c r="AD17" t="n">
-        <v>836422.6279716061</v>
+        <v>944997.8666984416</v>
       </c>
       <c r="AE17" t="n">
-        <v>1144430.339952801</v>
+        <v>1292987.771580329</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.270498042080206e-06</v>
+        <v>1.868194290741543e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.98263888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1035207.514525775</v>
+        <v>1169586.833380437</v>
       </c>
     </row>
     <row r="18">
@@ -21418,28 +21418,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>836.4621249521502</v>
+        <v>945.0373636789857</v>
       </c>
       <c r="AB18" t="n">
-        <v>1144.484381464066</v>
+        <v>1293.041813091593</v>
       </c>
       <c r="AC18" t="n">
-        <v>1035.256398391052</v>
+        <v>1169.635717245714</v>
       </c>
       <c r="AD18" t="n">
-        <v>836462.1249521503</v>
+        <v>945037.3636789857</v>
       </c>
       <c r="AE18" t="n">
-        <v>1144484.381464066</v>
+        <v>1293041.813091593</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.269730203850587e-06</v>
+        <v>1.867065228791602e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH18" t="n">
-        <v>1035256.398391052</v>
+        <v>1169635.717245714</v>
       </c>
     </row>
   </sheetData>
@@ -21715,28 +21715,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2517.198099178017</v>
+        <v>2722.910051122753</v>
       </c>
       <c r="AB2" t="n">
-        <v>3444.141490238113</v>
+        <v>3725.60565825973</v>
       </c>
       <c r="AC2" t="n">
-        <v>3115.437460292599</v>
+        <v>3370.039083155664</v>
       </c>
       <c r="AD2" t="n">
-        <v>2517198.099178017</v>
+        <v>2722910.051122753</v>
       </c>
       <c r="AE2" t="n">
-        <v>3444141.490238113</v>
+        <v>3725605.65825973</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598220716316245e-07</v>
+        <v>9.546124325276707e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.42939814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>3115437.460292599</v>
+        <v>3370039.083155664</v>
       </c>
     </row>
     <row r="3">
@@ -21821,28 +21821,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1535.01935795707</v>
+        <v>1680.742684298074</v>
       </c>
       <c r="AB3" t="n">
-        <v>2100.281205831479</v>
+        <v>2299.666289790673</v>
       </c>
       <c r="AC3" t="n">
-        <v>1899.833315310108</v>
+        <v>2080.18936669496</v>
       </c>
       <c r="AD3" t="n">
-        <v>1535019.35795707</v>
+        <v>1680742.684298074</v>
       </c>
       <c r="AE3" t="n">
-        <v>2100281.205831479</v>
+        <v>2299666.289790673</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.190076350710045e-07</v>
+        <v>1.329594979836358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1899833.315310108</v>
+        <v>2080189.366694959</v>
       </c>
     </row>
     <row r="4">
@@ -21927,28 +21927,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1320.688899694942</v>
+        <v>1449.333576473859</v>
       </c>
       <c r="AB4" t="n">
-        <v>1807.02481724476</v>
+        <v>1983.042139416264</v>
       </c>
       <c r="AC4" t="n">
-        <v>1634.564904862179</v>
+        <v>1793.783380847498</v>
       </c>
       <c r="AD4" t="n">
-        <v>1320688.899694942</v>
+        <v>1449333.576473859</v>
       </c>
       <c r="AE4" t="n">
-        <v>1807024.81724476</v>
+        <v>1983042.139416264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020596094270386e-06</v>
+        <v>1.476570369600527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.01736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1634564.904862179</v>
+        <v>1793783.380847498</v>
       </c>
     </row>
     <row r="5">
@@ -22033,28 +22033,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1216.965637590277</v>
+        <v>1345.439632660051</v>
       </c>
       <c r="AB5" t="n">
-        <v>1665.106074085787</v>
+        <v>1840.889862012895</v>
       </c>
       <c r="AC5" t="n">
-        <v>1506.190687366092</v>
+        <v>1665.197917287533</v>
       </c>
       <c r="AD5" t="n">
-        <v>1216965.637590277</v>
+        <v>1345439.632660051</v>
       </c>
       <c r="AE5" t="n">
-        <v>1665106.074085787</v>
+        <v>1840889.862012895</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.076445924627523e-06</v>
+        <v>1.557372368663162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.46064814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1506190.687366092</v>
+        <v>1665197.917287533</v>
       </c>
     </row>
     <row r="6">
@@ -22139,28 +22139,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1161.998020195963</v>
+        <v>1282.145953112572</v>
       </c>
       <c r="AB6" t="n">
-        <v>1589.896954966755</v>
+        <v>1754.288657335965</v>
       </c>
       <c r="AC6" t="n">
-        <v>1438.159421019119</v>
+        <v>1586.861810039414</v>
       </c>
       <c r="AD6" t="n">
-        <v>1161998.020195963</v>
+        <v>1282145.953112572</v>
       </c>
       <c r="AE6" t="n">
-        <v>1589896.954966755</v>
+        <v>1754288.657335965</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.108949996513099e-06</v>
+        <v>1.604398366221891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.62731481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>1438159.421019119</v>
+        <v>1586861.810039414</v>
       </c>
     </row>
     <row r="7">
@@ -22245,28 +22245,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1128.42685506468</v>
+        <v>1239.99288228151</v>
       </c>
       <c r="AB7" t="n">
-        <v>1543.963405778855</v>
+        <v>1696.61296616267</v>
       </c>
       <c r="AC7" t="n">
-        <v>1396.609705297571</v>
+        <v>1534.690605883357</v>
       </c>
       <c r="AD7" t="n">
-        <v>1128426.85506468</v>
+        <v>1239992.88228151</v>
       </c>
       <c r="AE7" t="n">
-        <v>1543963.405778855</v>
+        <v>1696612.96616267</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133089828402061e-06</v>
+        <v>1.639323211314366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.03703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1396609.705297571</v>
+        <v>1534690.605883357</v>
       </c>
     </row>
     <row r="8">
@@ -22351,28 +22351,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1096.894064491506</v>
+        <v>1216.956656553543</v>
       </c>
       <c r="AB8" t="n">
-        <v>1500.818850588101</v>
+        <v>1665.093785835113</v>
       </c>
       <c r="AC8" t="n">
-        <v>1357.582805900458</v>
+        <v>1506.179571888815</v>
       </c>
       <c r="AD8" t="n">
-        <v>1096894.064491506</v>
+        <v>1216956.656553543</v>
       </c>
       <c r="AE8" t="n">
-        <v>1500818.8505881</v>
+        <v>1665093.785835113</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.149447740800502e-06</v>
+        <v>1.662989389238873e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.64930555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1357582.805900458</v>
+        <v>1506179.571888815</v>
       </c>
     </row>
     <row r="9">
@@ -22457,28 +22457,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1077.95694195218</v>
+        <v>1189.437628314439</v>
       </c>
       <c r="AB9" t="n">
-        <v>1474.908244082911</v>
+        <v>1627.441037344528</v>
       </c>
       <c r="AC9" t="n">
-        <v>1334.145071314359</v>
+        <v>1472.120348868207</v>
       </c>
       <c r="AD9" t="n">
-        <v>1077956.94195218</v>
+        <v>1189437.628314439</v>
       </c>
       <c r="AE9" t="n">
-        <v>1474908.244082911</v>
+        <v>1627441.037344528</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162629359529343e-06</v>
+        <v>1.682060192809107e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.34837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1334145.071314359</v>
+        <v>1472120.348868207</v>
       </c>
     </row>
     <row r="10">
@@ -22563,28 +22563,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1063.340469913108</v>
+        <v>1174.821156275366</v>
       </c>
       <c r="AB10" t="n">
-        <v>1454.909342205815</v>
+        <v>1607.442135467433</v>
       </c>
       <c r="AC10" t="n">
-        <v>1316.054836563779</v>
+        <v>1454.030114117626</v>
       </c>
       <c r="AD10" t="n">
-        <v>1063340.469913108</v>
+        <v>1174821.156275366</v>
       </c>
       <c r="AE10" t="n">
-        <v>1454909.342205815</v>
+        <v>1607442.135467432</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.172211178765971e-06</v>
+        <v>1.695922905444497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.13425925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1316054.836563779</v>
+        <v>1454030.114117627</v>
       </c>
     </row>
     <row r="11">
@@ -22669,28 +22669,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1040.145760659703</v>
+        <v>1160.123011867169</v>
       </c>
       <c r="AB11" t="n">
-        <v>1423.173317726955</v>
+        <v>1587.331485851769</v>
       </c>
       <c r="AC11" t="n">
-        <v>1287.34765371939</v>
+        <v>1435.838796675808</v>
       </c>
       <c r="AD11" t="n">
-        <v>1040145.760659703</v>
+        <v>1160123.011867169</v>
       </c>
       <c r="AE11" t="n">
-        <v>1423173.317726955</v>
+        <v>1587331.485851769</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.181634183319118e-06</v>
+        <v>1.709555849362174e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="AH11" t="n">
-        <v>1287347.65371939</v>
+        <v>1435838.796675808</v>
       </c>
     </row>
     <row r="12">
@@ -22775,28 +22775,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1031.059215512</v>
+        <v>1151.036466719466</v>
       </c>
       <c r="AB12" t="n">
-        <v>1410.740705785788</v>
+        <v>1574.898873910602</v>
       </c>
       <c r="AC12" t="n">
-        <v>1276.101592812608</v>
+        <v>1424.592735769026</v>
       </c>
       <c r="AD12" t="n">
-        <v>1031059.215512</v>
+        <v>1151036.466719466</v>
       </c>
       <c r="AE12" t="n">
-        <v>1410740.705785788</v>
+        <v>1574898.873910602</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.186504500279172e-06</v>
+        <v>1.716602090038726e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.82175925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1276101.592812608</v>
+        <v>1424592.735769026</v>
       </c>
     </row>
     <row r="13">
@@ -22881,28 +22881,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1019.184787805234</v>
+        <v>1130.750725513513</v>
       </c>
       <c r="AB13" t="n">
-        <v>1394.493589934612</v>
+        <v>1547.143027848878</v>
       </c>
       <c r="AC13" t="n">
-        <v>1261.405078895297</v>
+        <v>1399.485868699858</v>
       </c>
       <c r="AD13" t="n">
-        <v>1019184.787805234</v>
+        <v>1130750.725513513</v>
       </c>
       <c r="AE13" t="n">
-        <v>1394493.589934612</v>
+        <v>1547143.027848878</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193757037491426e-06</v>
+        <v>1.727094861480983e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.66550925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1261405.078895297</v>
+        <v>1399485.868699858</v>
       </c>
     </row>
     <row r="14">
@@ -22987,28 +22987,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1012.107834119828</v>
+        <v>1123.673771828107</v>
       </c>
       <c r="AB14" t="n">
-        <v>1384.810589689077</v>
+        <v>1537.460027603343</v>
       </c>
       <c r="AC14" t="n">
-        <v>1252.646210603021</v>
+        <v>1390.727000407581</v>
       </c>
       <c r="AD14" t="n">
-        <v>1012107.834119828</v>
+        <v>1123673.771828107</v>
       </c>
       <c r="AE14" t="n">
-        <v>1384810.589689077</v>
+        <v>1537460.027603343</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>1.732226362843255e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.58449074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>1252646.210603021</v>
+        <v>1390727.000407581</v>
       </c>
     </row>
     <row r="15">
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1003.54810984459</v>
+        <v>1115.11404755287</v>
       </c>
       <c r="AB15" t="n">
-        <v>1373.098797307314</v>
+        <v>1525.748235221581</v>
       </c>
       <c r="AC15" t="n">
-        <v>1242.052175248569</v>
+        <v>1380.13296505313</v>
       </c>
       <c r="AD15" t="n">
-        <v>1003548.10984459</v>
+        <v>1115114.04755287</v>
       </c>
       <c r="AE15" t="n">
-        <v>1373098.797307314</v>
+        <v>1525748.235221581</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.20069194533672e-06</v>
+        <v>1.737128095487813e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.5150462962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1242052.175248569</v>
+        <v>1380132.965053129</v>
       </c>
     </row>
     <row r="16">
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>995.3643140262445</v>
+        <v>1106.759659533932</v>
       </c>
       <c r="AB16" t="n">
-        <v>1361.901366825063</v>
+        <v>1514.317392964482</v>
       </c>
       <c r="AC16" t="n">
-        <v>1231.923411815852</v>
+        <v>1369.793066337761</v>
       </c>
       <c r="AD16" t="n">
-        <v>995364.3140262446</v>
+        <v>1106759.659533932</v>
       </c>
       <c r="AE16" t="n">
-        <v>1361901.366825063</v>
+        <v>1514317.392964482</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.204132930145453e-06</v>
+        <v>1.742106417704942e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.43981481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>1231923.411815852</v>
+        <v>1369793.066337761</v>
       </c>
     </row>
     <row r="17">
@@ -23305,28 +23305,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>988.7102046616217</v>
+        <v>1100.105550169309</v>
       </c>
       <c r="AB17" t="n">
-        <v>1352.7969208338</v>
+        <v>1505.212946973219</v>
       </c>
       <c r="AC17" t="n">
-        <v>1223.687881371824</v>
+        <v>1361.557535893733</v>
       </c>
       <c r="AD17" t="n">
-        <v>988710.2046616217</v>
+        <v>1100105.550169309</v>
       </c>
       <c r="AE17" t="n">
-        <v>1352796.9208338</v>
+        <v>1505212.946973219</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.20783860609332e-06</v>
+        <v>1.747467687784927e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1223687.881371824</v>
+        <v>1361557.535893733</v>
       </c>
     </row>
     <row r="18">
@@ -23411,28 +23411,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>978.791339295067</v>
+        <v>1090.186684802754</v>
       </c>
       <c r="AB18" t="n">
-        <v>1339.225491649823</v>
+        <v>1491.641517789242</v>
       </c>
       <c r="AC18" t="n">
-        <v>1211.411690341546</v>
+        <v>1349.281344863455</v>
       </c>
       <c r="AD18" t="n">
-        <v>978791.339295067</v>
+        <v>1090186.684802754</v>
       </c>
       <c r="AE18" t="n">
-        <v>1339225.491649823</v>
+        <v>1491641.517789242</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.212338355458587e-06</v>
+        <v>1.753977801453481e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.27199074074074</v>
       </c>
       <c r="AH18" t="n">
-        <v>1211411.690341546</v>
+        <v>1349281.344863455</v>
       </c>
     </row>
     <row r="19">
@@ -23517,28 +23517,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>973.5278103046494</v>
+        <v>1084.923155812337</v>
       </c>
       <c r="AB19" t="n">
-        <v>1332.023699074623</v>
+        <v>1484.439725214042</v>
       </c>
       <c r="AC19" t="n">
-        <v>1204.897226741944</v>
+        <v>1342.766881263853</v>
       </c>
       <c r="AD19" t="n">
-        <v>973527.8103046494</v>
+        <v>1084923.155812337</v>
       </c>
       <c r="AE19" t="n">
-        <v>1332023.699074623</v>
+        <v>1484439.725214042</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.213926502293387e-06</v>
+        <v>1.756275488630617e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.23726851851852</v>
       </c>
       <c r="AH19" t="n">
-        <v>1204897.226741944</v>
+        <v>1342766.881263853</v>
       </c>
     </row>
     <row r="20">
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>967.2713989703992</v>
+        <v>1078.666744478086</v>
       </c>
       <c r="AB20" t="n">
-        <v>1323.463401073714</v>
+        <v>1475.879427213133</v>
       </c>
       <c r="AC20" t="n">
-        <v>1197.153911567788</v>
+        <v>1335.023566089697</v>
       </c>
       <c r="AD20" t="n">
-        <v>967271.3989703992</v>
+        <v>1078666.744478086</v>
       </c>
       <c r="AE20" t="n">
-        <v>1323463.401073714</v>
+        <v>1475879.427213133</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.215673463811668e-06</v>
+        <v>1.758802944525468e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.20254629629629</v>
       </c>
       <c r="AH20" t="n">
-        <v>1197153.911567788</v>
+        <v>1335023.566089697</v>
       </c>
     </row>
     <row r="21">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>959.5543081259509</v>
+        <v>1070.949653633638</v>
       </c>
       <c r="AB21" t="n">
-        <v>1312.90453692632</v>
+        <v>1465.320563065739</v>
       </c>
       <c r="AC21" t="n">
-        <v>1187.602770595162</v>
+        <v>1325.472425117071</v>
       </c>
       <c r="AD21" t="n">
-        <v>959554.3081259509</v>
+        <v>1070949.653633638</v>
       </c>
       <c r="AE21" t="n">
-        <v>1312904.53692632</v>
+        <v>1465320.563065739</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.217367487102121e-06</v>
+        <v>1.761253810847747e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.16782407407408</v>
       </c>
       <c r="AH21" t="n">
-        <v>1187602.770595162</v>
+        <v>1325472.425117071</v>
       </c>
     </row>
     <row r="22">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>954.0328014672789</v>
+        <v>1065.428146974966</v>
       </c>
       <c r="AB22" t="n">
-        <v>1305.349767924243</v>
+        <v>1457.765794063662</v>
       </c>
       <c r="AC22" t="n">
-        <v>1180.769018143458</v>
+        <v>1318.638672665367</v>
       </c>
       <c r="AD22" t="n">
-        <v>954032.8014672789</v>
+        <v>1065428.146974966</v>
       </c>
       <c r="AE22" t="n">
-        <v>1305349.767924243</v>
+        <v>1457765.794063662</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219061510392574e-06</v>
+        <v>1.763704677170026e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.13310185185185</v>
       </c>
       <c r="AH22" t="n">
-        <v>1180769.018143458</v>
+        <v>1318638.672665367</v>
       </c>
     </row>
     <row r="23">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>946.9470539046991</v>
+        <v>1058.342399412386</v>
       </c>
       <c r="AB23" t="n">
-        <v>1295.654735508001</v>
+        <v>1448.070761647421</v>
       </c>
       <c r="AC23" t="n">
-        <v>1171.999266013959</v>
+        <v>1309.868920535868</v>
       </c>
       <c r="AD23" t="n">
-        <v>946947.0539046992</v>
+        <v>1058342.399412386</v>
       </c>
       <c r="AE23" t="n">
-        <v>1295654.735508001</v>
+        <v>1448070.76164742</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.221126101277815e-06</v>
+        <v>1.766691670500303e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.08680555555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1171999.266013959</v>
+        <v>1309868.920535868</v>
       </c>
     </row>
     <row r="24">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>940.8930864479308</v>
+        <v>1043.877118456432</v>
       </c>
       <c r="AB24" t="n">
-        <v>1287.371430151456</v>
+        <v>1428.278726080327</v>
       </c>
       <c r="AC24" t="n">
-        <v>1164.506507694951</v>
+        <v>1291.965809065003</v>
       </c>
       <c r="AD24" t="n">
-        <v>940893.0864479309</v>
+        <v>1043877.118456432</v>
       </c>
       <c r="AE24" t="n">
-        <v>1287371.430151456</v>
+        <v>1428278.726080327</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223084815707401e-06</v>
+        <v>1.769525484685438e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.0462962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>1164506.507694951</v>
+        <v>1291965.809065002</v>
       </c>
     </row>
     <row r="25">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>936.1858553634871</v>
+        <v>1039.169887371988</v>
       </c>
       <c r="AB25" t="n">
-        <v>1280.930788913342</v>
+        <v>1421.838084842213</v>
       </c>
       <c r="AC25" t="n">
-        <v>1158.680552217105</v>
+        <v>1286.139853587156</v>
       </c>
       <c r="AD25" t="n">
-        <v>936185.8553634871</v>
+        <v>1039169.887371988</v>
       </c>
       <c r="AE25" t="n">
-        <v>1280930.788913341</v>
+        <v>1421838.084842212</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.225043530136988e-06</v>
+        <v>1.772359298870573e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25.00578703703704</v>
       </c>
       <c r="AH25" t="n">
-        <v>1158680.552217105</v>
+        <v>1286139.853587156</v>
       </c>
     </row>
     <row r="26">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>938.9339785047669</v>
+        <v>1041.918010513268</v>
       </c>
       <c r="AB26" t="n">
-        <v>1284.690892233876</v>
+        <v>1425.598188162748</v>
       </c>
       <c r="AC26" t="n">
-        <v>1162.081796554066</v>
+        <v>1289.541097924118</v>
       </c>
       <c r="AD26" t="n">
-        <v>938933.9785047668</v>
+        <v>1041918.010513268</v>
       </c>
       <c r="AE26" t="n">
-        <v>1284690.892233877</v>
+        <v>1425598.188162748</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.224620024314375e-06</v>
+        <v>1.771746582290004e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1162081.796554066</v>
+        <v>1289541.097924118</v>
       </c>
     </row>
     <row r="27">
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>941.9460384682574</v>
+        <v>1044.930070476759</v>
       </c>
       <c r="AB27" t="n">
-        <v>1288.812125558632</v>
+        <v>1429.719421487503</v>
       </c>
       <c r="AC27" t="n">
-        <v>1165.809705154494</v>
+        <v>1293.269006524546</v>
       </c>
       <c r="AD27" t="n">
-        <v>941946.0384682574</v>
+        <v>1044930.070476759</v>
       </c>
       <c r="AE27" t="n">
-        <v>1288812.125558632</v>
+        <v>1429719.421487503</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.224725900770028e-06</v>
+        <v>1.771899761435146e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25.01157407407408</v>
       </c>
       <c r="AH27" t="n">
-        <v>1165809.705154494</v>
+        <v>1293269.006524546</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1391.310899421205</v>
+        <v>1544.960593142842</v>
       </c>
       <c r="AB2" t="n">
-        <v>1903.652952892971</v>
+        <v>2113.883242388995</v>
       </c>
       <c r="AC2" t="n">
-        <v>1721.970986862565</v>
+        <v>1912.137192589153</v>
       </c>
       <c r="AD2" t="n">
-        <v>1391310.899421205</v>
+        <v>1544960.593142842</v>
       </c>
       <c r="AE2" t="n">
-        <v>1903652.952892971</v>
+        <v>2113883.242388995</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.277912481648099e-07</v>
+        <v>1.393249842405249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1721970.986862565</v>
+        <v>1912137.192589153</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1021.921874114713</v>
+        <v>1143.188420412105</v>
       </c>
       <c r="AB3" t="n">
-        <v>1398.238592174967</v>
+        <v>1564.160830721503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1264.792663377977</v>
+        <v>1414.879516350956</v>
       </c>
       <c r="AD3" t="n">
-        <v>1021921.874114713</v>
+        <v>1143188.420412105</v>
       </c>
       <c r="AE3" t="n">
-        <v>1398238.592174967</v>
+        <v>1564160.830721503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.136887905390101e-06</v>
+        <v>1.70724707540658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.1550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1264792.663377977</v>
+        <v>1414879.516350956</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>920.9650800054867</v>
+        <v>1034.13581706968</v>
       </c>
       <c r="AB4" t="n">
-        <v>1260.105052575308</v>
+        <v>1414.950247767086</v>
       </c>
       <c r="AC4" t="n">
-        <v>1139.842394926069</v>
+        <v>1279.90938201534</v>
       </c>
       <c r="AD4" t="n">
-        <v>920965.0800054867</v>
+        <v>1034135.81706968</v>
       </c>
       <c r="AE4" t="n">
-        <v>1260105.052575308</v>
+        <v>1414950.247767086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212142084407913e-06</v>
+        <v>1.82025511817945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1139842.394926069</v>
+        <v>1279909.38201534</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>869.7545904707205</v>
+        <v>982.8399866803417</v>
       </c>
       <c r="AB5" t="n">
-        <v>1190.036601546492</v>
+        <v>1344.765029616072</v>
       </c>
       <c r="AC5" t="n">
-        <v>1076.461178521755</v>
+        <v>1216.422542579087</v>
       </c>
       <c r="AD5" t="n">
-        <v>869754.5904707204</v>
+        <v>982839.9866803417</v>
       </c>
       <c r="AE5" t="n">
-        <v>1190036.601546492</v>
+        <v>1344765.029616072</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251773661181373e-06</v>
+        <v>1.879769247250094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.47569444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1076461.178521755</v>
+        <v>1216422.542579087</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>833.2534585625464</v>
+        <v>946.4241061181882</v>
       </c>
       <c r="AB6" t="n">
-        <v>1140.094142553439</v>
+        <v>1294.939215275669</v>
       </c>
       <c r="AC6" t="n">
-        <v>1031.285157720317</v>
+        <v>1171.352034028361</v>
       </c>
       <c r="AD6" t="n">
-        <v>833253.4585625464</v>
+        <v>946424.1061181882</v>
       </c>
       <c r="AE6" t="n">
-        <v>1140094.142553439</v>
+        <v>1294939.215275669</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276285676873629e-06</v>
+        <v>1.916578564074134e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.96643518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1031285.157720317</v>
+        <v>1171352.034028362</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>812.856906718069</v>
+        <v>918.102426749655</v>
       </c>
       <c r="AB7" t="n">
-        <v>1112.186680487465</v>
+        <v>1256.188244099331</v>
       </c>
       <c r="AC7" t="n">
-        <v>1006.04114466555</v>
+        <v>1136.299401153763</v>
       </c>
       <c r="AD7" t="n">
-        <v>812856.906718069</v>
+        <v>918102.426749655</v>
       </c>
       <c r="AE7" t="n">
-        <v>1112186.680487465</v>
+        <v>1256188.244099331</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291806135407744e-06</v>
+        <v>1.939885397857579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.65393518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>1006041.14466555</v>
+        <v>1136299.401153764</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>794.5137660154721</v>
+        <v>899.5886938464661</v>
       </c>
       <c r="AB8" t="n">
-        <v>1087.088786135917</v>
+        <v>1230.856937972936</v>
       </c>
       <c r="AC8" t="n">
-        <v>983.3385581257986</v>
+        <v>1113.385679331361</v>
       </c>
       <c r="AD8" t="n">
-        <v>794513.7660154721</v>
+        <v>899588.693846466</v>
       </c>
       <c r="AE8" t="n">
-        <v>1087088.786135918</v>
+        <v>1230856.937972936</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304921209224394e-06</v>
+        <v>1.959580102419974e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.39930555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>983338.5581257986</v>
+        <v>1113385.679331361</v>
       </c>
     </row>
     <row r="9">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>780.377396722102</v>
+        <v>885.4523245530961</v>
       </c>
       <c r="AB9" t="n">
-        <v>1067.746782016131</v>
+        <v>1211.514933853149</v>
       </c>
       <c r="AC9" t="n">
-        <v>965.8425277325309</v>
+        <v>1095.889648938093</v>
       </c>
       <c r="AD9" t="n">
-        <v>780377.3967221021</v>
+        <v>885452.3245530961</v>
       </c>
       <c r="AE9" t="n">
-        <v>1067746.782016131</v>
+        <v>1211514.933853149</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.31185100805328e-06</v>
+        <v>1.969986474699668e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.26620370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>965842.527732531</v>
+        <v>1095889.648938093</v>
       </c>
     </row>
     <row r="10">
@@ -25510,28 +25510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>765.2002174786548</v>
+        <v>870.2751453096488</v>
       </c>
       <c r="AB10" t="n">
-        <v>1046.980695805353</v>
+        <v>1190.748847642373</v>
       </c>
       <c r="AC10" t="n">
-        <v>947.0583276443256</v>
+        <v>1077.105448849888</v>
       </c>
       <c r="AD10" t="n">
-        <v>765200.2174786548</v>
+        <v>870275.1453096488</v>
       </c>
       <c r="AE10" t="n">
-        <v>1046980.695805353</v>
+        <v>1190748.847642373</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320498938823211e-06</v>
+        <v>1.982972939280112e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.09837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>947058.3276443256</v>
+        <v>1077105.448849888</v>
       </c>
     </row>
     <row r="11">
@@ -25616,28 +25616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>753.7503004414732</v>
+        <v>850.9001007484115</v>
       </c>
       <c r="AB11" t="n">
-        <v>1031.314414180393</v>
+        <v>1164.239056907048</v>
       </c>
       <c r="AC11" t="n">
-        <v>932.8872139498865</v>
+        <v>1053.125715335618</v>
       </c>
       <c r="AD11" t="n">
-        <v>753750.3004414733</v>
+        <v>850900.1007484115</v>
       </c>
       <c r="AE11" t="n">
-        <v>1031314.414180393</v>
+        <v>1164239.056907048</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.324794268675826e-06</v>
+        <v>1.989423170031989e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>932887.2139498865</v>
+        <v>1053125.715335618</v>
       </c>
     </row>
     <row r="12">
@@ -25722,28 +25722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>744.6739747422774</v>
+        <v>849.8341539192918</v>
       </c>
       <c r="AB12" t="n">
-        <v>1018.895784939523</v>
+        <v>1162.780581429191</v>
       </c>
       <c r="AC12" t="n">
-        <v>921.6538012541099</v>
+        <v>1051.806434710385</v>
       </c>
       <c r="AD12" t="n">
-        <v>744673.9747422774</v>
+        <v>849834.1539192918</v>
       </c>
       <c r="AE12" t="n">
-        <v>1018895.784939523</v>
+        <v>1162780.581429191</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.325882418905155e-06</v>
+        <v>1.99105722848913e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>921653.8012541099</v>
+        <v>1051806.434710385</v>
       </c>
     </row>
   </sheetData>
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1073.27645203415</v>
+        <v>1206.609782844354</v>
       </c>
       <c r="AB2" t="n">
-        <v>1468.50419128842</v>
+        <v>1650.936736754347</v>
       </c>
       <c r="AC2" t="n">
-        <v>1328.35221233043</v>
+        <v>1493.373651702774</v>
       </c>
       <c r="AD2" t="n">
-        <v>1073276.45203415</v>
+        <v>1206609.782844353</v>
       </c>
       <c r="AE2" t="n">
-        <v>1468504.19128842</v>
+        <v>1650936.736754347</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063274994920217e-06</v>
+        <v>1.630794566626117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.47106481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1328352.21233043</v>
+        <v>1493373.651702774</v>
       </c>
     </row>
     <row r="3">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.6210735818764</v>
+        <v>952.3232717539398</v>
       </c>
       <c r="AB3" t="n">
-        <v>1141.965373757803</v>
+        <v>1303.010713951324</v>
       </c>
       <c r="AC3" t="n">
-        <v>1032.977801244826</v>
+        <v>1178.653200198832</v>
       </c>
       <c r="AD3" t="n">
-        <v>834621.0735818765</v>
+        <v>952323.2717539398</v>
       </c>
       <c r="AE3" t="n">
-        <v>1141965.373757803</v>
+        <v>1303010.713951324</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243321223651026e-06</v>
+        <v>1.906939884590412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1032977.801244826</v>
+        <v>1178653.200198832</v>
       </c>
     </row>
     <row r="4">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.2349663882981</v>
+        <v>875.9937212222605</v>
       </c>
       <c r="AB4" t="n">
-        <v>1048.396484913428</v>
+        <v>1198.573255491772</v>
       </c>
       <c r="AC4" t="n">
-        <v>948.3389958269976</v>
+        <v>1084.183106195766</v>
       </c>
       <c r="AD4" t="n">
-        <v>766234.9663882981</v>
+        <v>875993.7212222605</v>
       </c>
       <c r="AE4" t="n">
-        <v>1048396.484913428</v>
+        <v>1198573.255491772</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.307393340833561e-06</v>
+        <v>2.005210286013093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>948338.9958269976</v>
+        <v>1084183.106195766</v>
       </c>
     </row>
     <row r="5">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>724.6332026539262</v>
+        <v>834.4772088339091</v>
       </c>
       <c r="AB5" t="n">
-        <v>991.475116431776</v>
+        <v>1141.768531662769</v>
       </c>
       <c r="AC5" t="n">
-        <v>896.8501228635923</v>
+        <v>1032.799745483073</v>
       </c>
       <c r="AD5" t="n">
-        <v>724633.2026539262</v>
+        <v>834477.2088339091</v>
       </c>
       <c r="AE5" t="n">
-        <v>991475.116431776</v>
+        <v>1141768.531662769</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.340145289002287e-06</v>
+        <v>2.055443480036419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>896850.1228635923</v>
+        <v>1032799.745483073</v>
       </c>
     </row>
     <row r="6">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>700.2509258908433</v>
+        <v>802.2368295872968</v>
       </c>
       <c r="AB6" t="n">
-        <v>958.114209694392</v>
+        <v>1097.655822432406</v>
       </c>
       <c r="AC6" t="n">
-        <v>866.6731342428974</v>
+        <v>992.8970913090787</v>
       </c>
       <c r="AD6" t="n">
-        <v>700250.9258908433</v>
+        <v>802236.8295872968</v>
       </c>
       <c r="AE6" t="n">
-        <v>958114.209694392</v>
+        <v>1097655.822432406</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359414650128878e-06</v>
+        <v>2.084997800017356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.39351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>866673.1342428974</v>
+        <v>992897.0913090787</v>
       </c>
     </row>
     <row r="7">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>680.8915786259075</v>
+        <v>782.8774823223608</v>
       </c>
       <c r="AB7" t="n">
-        <v>931.625896692383</v>
+        <v>1071.167509430397</v>
       </c>
       <c r="AC7" t="n">
-        <v>842.7128286572196</v>
+        <v>968.9367857234008</v>
       </c>
       <c r="AD7" t="n">
-        <v>680891.5786259075</v>
+        <v>782877.4823223609</v>
       </c>
       <c r="AE7" t="n">
-        <v>931625.896692383</v>
+        <v>1071167.509430397</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.371883060269613e-06</v>
+        <v>2.104121183534432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.16203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>842712.8286572195</v>
+        <v>968936.7857234008</v>
       </c>
     </row>
     <row r="8">
@@ -26655,28 +26655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>675.4825369402585</v>
+        <v>777.4684406367119</v>
       </c>
       <c r="AB8" t="n">
-        <v>924.2250072280005</v>
+        <v>1063.766619966015</v>
       </c>
       <c r="AC8" t="n">
-        <v>836.018269696104</v>
+        <v>962.2422267622854</v>
       </c>
       <c r="AD8" t="n">
-        <v>675482.5369402585</v>
+        <v>777468.4406367119</v>
       </c>
       <c r="AE8" t="n">
-        <v>924225.0072280006</v>
+        <v>1063766.619966015</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.375164220832964e-06</v>
+        <v>2.109153652881032e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>836018.269696104</v>
+        <v>962242.2267622855</v>
       </c>
     </row>
   </sheetData>
@@ -50125,28 +50125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>870.845560568955</v>
+        <v>993.2817889552535</v>
       </c>
       <c r="AB2" t="n">
-        <v>1191.5293149651</v>
+        <v>1359.051964148412</v>
       </c>
       <c r="AC2" t="n">
-        <v>1077.811429466727</v>
+        <v>1229.345952131498</v>
       </c>
       <c r="AD2" t="n">
-        <v>870845.5605689549</v>
+        <v>993281.7889552535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1191529.3149651</v>
+        <v>1359051.964148412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.175383905551146e-06</v>
+        <v>1.836514167546467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.38194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1077811.429466727</v>
+        <v>1229345.952131498</v>
       </c>
     </row>
     <row r="3">
@@ -50231,28 +50231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.4936463064289</v>
+        <v>811.7639467131371</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.9192869426107</v>
+        <v>1110.691244390724</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.9241830660234</v>
+        <v>1004.688430891025</v>
       </c>
       <c r="AD3" t="n">
-        <v>704493.6463064289</v>
+        <v>811763.9467131371</v>
       </c>
       <c r="AE3" t="n">
-        <v>963919.2869426107</v>
+        <v>1110691.244390724</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330530137755052e-06</v>
+        <v>2.078927095048925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>871924.1830660234</v>
+        <v>1004688.430891025</v>
       </c>
     </row>
     <row r="4">
@@ -50337,28 +50337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>649.5045273543408</v>
+        <v>756.6894869064772</v>
       </c>
       <c r="AB4" t="n">
-        <v>888.6807484436506</v>
+        <v>1035.335938769566</v>
       </c>
       <c r="AC4" t="n">
-        <v>803.8663050834518</v>
+        <v>936.5249298765145</v>
       </c>
       <c r="AD4" t="n">
-        <v>649504.5273543408</v>
+        <v>756689.4869064773</v>
       </c>
       <c r="AE4" t="n">
-        <v>888680.7484436505</v>
+        <v>1035335.938769566</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.383911796806913e-06</v>
+        <v>2.162334884344719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.80439814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>803866.3050834518</v>
+        <v>936524.9298765145</v>
       </c>
     </row>
     <row r="5">
@@ -50443,28 +50443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>619.173074993825</v>
+        <v>718.6898639644212</v>
       </c>
       <c r="AB5" t="n">
-        <v>847.1799171947553</v>
+        <v>983.3431782351975</v>
       </c>
       <c r="AC5" t="n">
-        <v>766.3262549221688</v>
+        <v>889.4942854352481</v>
       </c>
       <c r="AD5" t="n">
-        <v>619173.0749938251</v>
+        <v>718689.8639644212</v>
       </c>
       <c r="AE5" t="n">
-        <v>847179.9171947553</v>
+        <v>983343.1782351974</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411806027895284e-06</v>
+        <v>2.205919070196394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.29513888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>766326.2549221688</v>
+        <v>889494.2854352482</v>
       </c>
     </row>
     <row r="6">
@@ -50549,28 +50549,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>618.3491546969072</v>
+        <v>717.8659436675033</v>
       </c>
       <c r="AB6" t="n">
-        <v>846.0525930957141</v>
+        <v>982.2158541361562</v>
       </c>
       <c r="AC6" t="n">
-        <v>765.3065210529307</v>
+        <v>888.4745515660101</v>
       </c>
       <c r="AD6" t="n">
-        <v>618349.1546969073</v>
+        <v>717865.9436675033</v>
       </c>
       <c r="AE6" t="n">
-        <v>846052.5930957141</v>
+        <v>982215.8541361562</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413595702013785e-06</v>
+        <v>2.208715400704576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.26620370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>765306.5210529307</v>
+        <v>888474.5515660101</v>
       </c>
     </row>
   </sheetData>
@@ -50846,28 +50846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.6303310949337</v>
+        <v>651.5443251226473</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.0284669829605</v>
+        <v>891.4716897397739</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.2559255726885</v>
+        <v>806.390882859384</v>
       </c>
       <c r="AD2" t="n">
-        <v>549630.3310949337</v>
+        <v>651544.3251226472</v>
       </c>
       <c r="AE2" t="n">
-        <v>752028.4669829605</v>
+        <v>891471.6897397739</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410843158612493e-06</v>
+        <v>2.299217423132025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.17013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>680255.9255726885</v>
+        <v>806390.8828593839</v>
       </c>
     </row>
     <row r="3">
@@ -50952,28 +50952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.4654228772735</v>
+        <v>603.1730016003941</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.704823491979</v>
+        <v>825.2879109044429</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.3077315657562</v>
+        <v>746.5235909865798</v>
       </c>
       <c r="AD3" t="n">
-        <v>508465.4228772735</v>
+        <v>603173.001600394</v>
       </c>
       <c r="AE3" t="n">
-        <v>695704.823491979</v>
+        <v>825287.9109044429</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468866567389232e-06</v>
+        <v>2.393776787576328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>629307.7315657561</v>
+        <v>746523.5909865799</v>
       </c>
     </row>
   </sheetData>
@@ -51249,28 +51249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1755.604953498962</v>
+        <v>1921.378274082794</v>
       </c>
       <c r="AB2" t="n">
-        <v>2402.096149201553</v>
+        <v>2628.914519827101</v>
       </c>
       <c r="AC2" t="n">
-        <v>2172.843464084876</v>
+        <v>2378.014607759505</v>
       </c>
       <c r="AD2" t="n">
-        <v>1755604.953498962</v>
+        <v>1921378.274082794</v>
       </c>
       <c r="AE2" t="n">
-        <v>2402096.149201553</v>
+        <v>2628914.519827101</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159404301230051e-07</v>
+        <v>1.205454729298279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.28819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2172843.464084876</v>
+        <v>2378014.607759505</v>
       </c>
     </row>
     <row r="3">
@@ -51355,28 +51355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200.771988134931</v>
+        <v>1333.441777507898</v>
       </c>
       <c r="AB3" t="n">
-        <v>1642.949208487589</v>
+        <v>1824.473867285708</v>
       </c>
       <c r="AC3" t="n">
-        <v>1486.14844192323</v>
+        <v>1650.348642057115</v>
       </c>
       <c r="AD3" t="n">
-        <v>1200771.988134931</v>
+        <v>1333441.777507898</v>
       </c>
       <c r="AE3" t="n">
-        <v>1642949.208487589</v>
+        <v>1824473.867285708</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.047428214066253e-06</v>
+        <v>1.54745033783443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.60763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1486148.44192323</v>
+        <v>1650348.642057115</v>
       </c>
     </row>
     <row r="4">
@@ -51461,28 +51461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1066.632186053703</v>
+        <v>1182.707673656778</v>
       </c>
       <c r="AB4" t="n">
-        <v>1459.413213449644</v>
+        <v>1618.232816477272</v>
       </c>
       <c r="AC4" t="n">
-        <v>1320.128864657319</v>
+        <v>1463.790947676703</v>
       </c>
       <c r="AD4" t="n">
-        <v>1066632.186053703</v>
+        <v>1182707.673656778</v>
       </c>
       <c r="AE4" t="n">
-        <v>1459413.213449644</v>
+        <v>1618232.816477272</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134007636488673e-06</v>
+        <v>1.675361114609258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.26967592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1320128.864657319</v>
+        <v>1463790.947676703</v>
       </c>
     </row>
     <row r="5">
@@ -51567,28 +51567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1002.819073441323</v>
+        <v>1118.809220189828</v>
       </c>
       <c r="AB5" t="n">
-        <v>1372.101297537548</v>
+        <v>1530.804133442978</v>
       </c>
       <c r="AC5" t="n">
-        <v>1241.14987545683</v>
+        <v>1384.706335444275</v>
       </c>
       <c r="AD5" t="n">
-        <v>1002819.073441323</v>
+        <v>1118809.220189828</v>
       </c>
       <c r="AE5" t="n">
-        <v>1372101.297537548</v>
+        <v>1530804.133442978</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.179540768434438e-06</v>
+        <v>1.742630889726921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.17592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1241149.87545683</v>
+        <v>1384706.335444275</v>
       </c>
     </row>
     <row r="6">
@@ -51673,28 +51673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>961.2280211198124</v>
+        <v>1077.303419214337</v>
       </c>
       <c r="AB6" t="n">
-        <v>1315.194584883527</v>
+        <v>1474.014065441606</v>
       </c>
       <c r="AC6" t="n">
-        <v>1189.674259589435</v>
+        <v>1333.336231827593</v>
       </c>
       <c r="AD6" t="n">
-        <v>961228.0211198124</v>
+        <v>1077303.419214337</v>
       </c>
       <c r="AE6" t="n">
-        <v>1315194.584883527</v>
+        <v>1474014.065441606</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.206738782771871e-06</v>
+        <v>1.782812714036864e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1189674.259589436</v>
+        <v>1333336.231827593</v>
       </c>
     </row>
     <row r="7">
@@ -51779,28 +51779,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>936.4386376143015</v>
+        <v>1044.216929578156</v>
       </c>
       <c r="AB7" t="n">
-        <v>1281.276656740871</v>
+        <v>1428.743670648479</v>
       </c>
       <c r="AC7" t="n">
-        <v>1158.993410904604</v>
+        <v>1292.386379976123</v>
       </c>
       <c r="AD7" t="n">
-        <v>936438.6376143014</v>
+        <v>1044216.929578156</v>
       </c>
       <c r="AE7" t="n">
-        <v>1281276.656740871</v>
+        <v>1428743.670648479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>1.812192092707474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.13425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1158993.410904604</v>
+        <v>1292386.379976123</v>
       </c>
     </row>
     <row r="8">
@@ -51885,28 +51885,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>910.4566001031465</v>
+        <v>1026.4466573431</v>
       </c>
       <c r="AB8" t="n">
-        <v>1245.726886771512</v>
+        <v>1404.429600207394</v>
       </c>
       <c r="AC8" t="n">
-        <v>1126.836461086705</v>
+        <v>1270.392810292923</v>
       </c>
       <c r="AD8" t="n">
-        <v>910456.6001031465</v>
+        <v>1026446.6573431</v>
       </c>
       <c r="AE8" t="n">
-        <v>1245726.886771512</v>
+        <v>1404429.600207394</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239143748937653e-06</v>
+        <v>1.830687189029362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.86805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1126836.461086705</v>
+        <v>1270392.810292923</v>
       </c>
     </row>
     <row r="9">
@@ -51991,28 +51991,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>893.9288661894491</v>
+        <v>1001.792409499325</v>
       </c>
       <c r="AB9" t="n">
-        <v>1223.112912078632</v>
+        <v>1370.696570638889</v>
       </c>
       <c r="AC9" t="n">
-        <v>1106.3807323996</v>
+        <v>1239.879213721832</v>
       </c>
       <c r="AD9" t="n">
-        <v>893928.8661894491</v>
+        <v>1001792.409499325</v>
       </c>
       <c r="AE9" t="n">
-        <v>1223112.912078632</v>
+        <v>1370696.570638889</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.25094248020827e-06</v>
+        <v>1.848118408129195e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1106380.7323996</v>
+        <v>1239879.213721832</v>
       </c>
     </row>
     <row r="10">
@@ -52097,28 +52097,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>880.9258388056417</v>
+        <v>988.6187899149252</v>
       </c>
       <c r="AB10" t="n">
-        <v>1205.321596359025</v>
+        <v>1352.671843144435</v>
       </c>
       <c r="AC10" t="n">
-        <v>1090.287394882004</v>
+        <v>1223.574740921585</v>
       </c>
       <c r="AD10" t="n">
-        <v>880925.8388056416</v>
+        <v>988618.7899149251</v>
       </c>
       <c r="AE10" t="n">
-        <v>1205321.596359025</v>
+        <v>1352671.843144435</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.25825437000978e-06</v>
+        <v>1.858920853768527e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.47453703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1090287.394882004</v>
+        <v>1223574.740921585</v>
       </c>
     </row>
     <row r="11">
@@ -52203,28 +52203,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>867.9397499677148</v>
+        <v>975.6327010769982</v>
       </c>
       <c r="AB11" t="n">
-        <v>1187.553456705167</v>
+        <v>1334.903703490578</v>
       </c>
       <c r="AC11" t="n">
-        <v>1074.215021538971</v>
+        <v>1207.502367578551</v>
       </c>
       <c r="AD11" t="n">
-        <v>867939.7499677148</v>
+        <v>975632.7010769981</v>
       </c>
       <c r="AE11" t="n">
-        <v>1187553.456705167</v>
+        <v>1334903.703490578</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.265289294288505e-06</v>
+        <v>1.869314115860915e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.33564814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>1074215.021538971</v>
+        <v>1207502.367578551</v>
       </c>
     </row>
     <row r="12">
@@ -52309,28 +52309,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>857.3143407650173</v>
+        <v>965.0072918743007</v>
       </c>
       <c r="AB12" t="n">
-        <v>1173.015303074066</v>
+        <v>1320.365549859476</v>
       </c>
       <c r="AC12" t="n">
-        <v>1061.064368885994</v>
+        <v>1194.351714925575</v>
       </c>
       <c r="AD12" t="n">
-        <v>857314.3407650173</v>
+        <v>965007.2918743007</v>
       </c>
       <c r="AE12" t="n">
-        <v>1173015.303074066</v>
+        <v>1320365.549859476</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.270496246116853e-06</v>
+        <v>1.877006766543471e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.23148148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>1061064.368885994</v>
+        <v>1194351.714925575</v>
       </c>
     </row>
     <row r="13">
@@ -52415,28 +52415,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>847.2035462388404</v>
+        <v>954.8964973481238</v>
       </c>
       <c r="AB13" t="n">
-        <v>1159.181267946578</v>
+        <v>1306.531514731987</v>
       </c>
       <c r="AC13" t="n">
-        <v>1048.550634654883</v>
+        <v>1181.837980694464</v>
       </c>
       <c r="AD13" t="n">
-        <v>847203.5462388404</v>
+        <v>954896.4973481238</v>
       </c>
       <c r="AE13" t="n">
-        <v>1159181.267946578</v>
+        <v>1306531.514731988</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.273265901344698e-06</v>
+        <v>1.881098602012915e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.17361111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>1048550.634654883</v>
+        <v>1181837.980694464</v>
       </c>
     </row>
     <row r="14">
@@ -52521,28 +52521,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>836.9141741826631</v>
+        <v>936.4806113618685</v>
       </c>
       <c r="AB14" t="n">
-        <v>1145.102895164258</v>
+        <v>1281.334087074043</v>
       </c>
       <c r="AC14" t="n">
-        <v>1035.815882011788</v>
+        <v>1159.045360167382</v>
       </c>
       <c r="AD14" t="n">
-        <v>836914.1741826631</v>
+        <v>936480.6113618684</v>
       </c>
       <c r="AE14" t="n">
-        <v>1145102.895164258</v>
+        <v>1281334.087074043</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.278805211800387e-06</v>
+        <v>1.889282272951804e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.06944444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>1035815.882011788</v>
+        <v>1159045.360167382</v>
       </c>
     </row>
     <row r="15">
@@ -52627,28 +52627,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>817.0266196527224</v>
+        <v>924.8048221080261</v>
       </c>
       <c r="AB15" t="n">
-        <v>1117.891865679409</v>
+        <v>1265.358757117469</v>
       </c>
       <c r="AC15" t="n">
-        <v>1011.201834990053</v>
+        <v>1144.594693280347</v>
       </c>
       <c r="AD15" t="n">
-        <v>817026.6196527224</v>
+        <v>924804.8221080261</v>
       </c>
       <c r="AE15" t="n">
-        <v>1117891.865679409</v>
+        <v>1265358.757117469</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.282627336014812e-06</v>
+        <v>1.894929005899637e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>1011201.834990053</v>
+        <v>1144594.693280346</v>
       </c>
     </row>
     <row r="16">
@@ -52733,28 +52733,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>813.4461260883604</v>
+        <v>921.2243285436645</v>
       </c>
       <c r="AB16" t="n">
-        <v>1112.992876424422</v>
+        <v>1260.459767862481</v>
       </c>
       <c r="AC16" t="n">
-        <v>1006.770398393787</v>
+        <v>1140.16325668408</v>
       </c>
       <c r="AD16" t="n">
-        <v>813446.1260883604</v>
+        <v>921224.3285436644</v>
       </c>
       <c r="AE16" t="n">
-        <v>1112992.876424422</v>
+        <v>1260459.767862481</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.284012163628734e-06</v>
+        <v>1.896974923634359e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.96527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>1006770.398393787</v>
+        <v>1140163.25668408</v>
       </c>
     </row>
     <row r="17">
@@ -52839,28 +52839,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>816.4723963345804</v>
+        <v>924.2505987898843</v>
       </c>
       <c r="AB17" t="n">
-        <v>1117.13355288492</v>
+        <v>1264.600444322979</v>
       </c>
       <c r="AC17" t="n">
-        <v>1010.515894504372</v>
+        <v>1143.908752794665</v>
       </c>
       <c r="AD17" t="n">
-        <v>816472.3963345804</v>
+        <v>924250.5987898842</v>
       </c>
       <c r="AE17" t="n">
-        <v>1117133.55288492</v>
+        <v>1264600.44432298</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.283624411896836e-06</v>
+        <v>1.896402066668637e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.97106481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>1010515.894504372</v>
+        <v>1143908.752794665</v>
       </c>
     </row>
   </sheetData>
@@ -53136,28 +53136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338.952084677139</v>
+        <v>2535.033349158821</v>
       </c>
       <c r="AB2" t="n">
-        <v>3200.257429538829</v>
+        <v>3468.544466097548</v>
       </c>
       <c r="AC2" t="n">
-        <v>2894.829352053034</v>
+        <v>3137.511450385799</v>
       </c>
       <c r="AD2" t="n">
-        <v>2338952.084677139</v>
+        <v>2535033.349158821</v>
       </c>
       <c r="AE2" t="n">
-        <v>3200257.429538828</v>
+        <v>3468544.466097548</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.888502942511147e-07</v>
+        <v>1.00032705371826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2894829.352053034</v>
+        <v>3137511.4503858</v>
       </c>
     </row>
     <row r="3">
@@ -53242,28 +53242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1460.018335332866</v>
+        <v>1604.925702770307</v>
       </c>
       <c r="AB3" t="n">
-        <v>1997.66149786545</v>
+        <v>2195.930150855223</v>
       </c>
       <c r="AC3" t="n">
-        <v>1807.007488244692</v>
+        <v>1986.353659264923</v>
       </c>
       <c r="AD3" t="n">
-        <v>1460018.335332866</v>
+        <v>1604925.702770307</v>
       </c>
       <c r="AE3" t="n">
-        <v>1997661.49786545</v>
+        <v>2195930.150855223</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.436261527912595e-07</v>
+        <v>1.370304661420489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.73726851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1807007.488244692</v>
+        <v>1986353.659264923</v>
       </c>
     </row>
     <row r="4">
@@ -53348,28 +53348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1262.850057464225</v>
+        <v>1390.784800074825</v>
       </c>
       <c r="AB4" t="n">
-        <v>1727.887161635061</v>
+        <v>1902.933120557388</v>
       </c>
       <c r="AC4" t="n">
-        <v>1562.980036033473</v>
+        <v>1721.319854314799</v>
       </c>
       <c r="AD4" t="n">
-        <v>1262850.057464225</v>
+        <v>1390784.800074825</v>
       </c>
       <c r="AE4" t="n">
-        <v>1727887.161635061</v>
+        <v>1902933.120557388</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042056214209241e-06</v>
+        <v>1.513241746818123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.64120370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1562980.036033473</v>
+        <v>1721319.854314799</v>
       </c>
     </row>
     <row r="5">
@@ -53454,28 +53454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1176.984340765563</v>
+        <v>1296.304849189435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1610.401899919884</v>
+        <v>1773.66148359474</v>
       </c>
       <c r="AC5" t="n">
-        <v>1456.707402804791</v>
+        <v>1604.385720949984</v>
       </c>
       <c r="AD5" t="n">
-        <v>1176984.340765563</v>
+        <v>1296304.849189435</v>
       </c>
       <c r="AE5" t="n">
-        <v>1610401.899919884</v>
+        <v>1773661.48359474</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.0945807155299e-06</v>
+        <v>1.589516200197338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.22337962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1456707.402804791</v>
+        <v>1604385.720949984</v>
       </c>
     </row>
     <row r="6">
@@ -53560,28 +53560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1122.910881590243</v>
+        <v>1242.146049159544</v>
       </c>
       <c r="AB6" t="n">
-        <v>1536.416207523556</v>
+        <v>1699.559024076214</v>
       </c>
       <c r="AC6" t="n">
-        <v>1389.782801051198</v>
+        <v>1537.355496164451</v>
       </c>
       <c r="AD6" t="n">
-        <v>1122910.881590243</v>
+        <v>1242146.049159544</v>
       </c>
       <c r="AE6" t="n">
-        <v>1536416.207523556</v>
+        <v>1699559.024076215</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.127728800204827e-06</v>
+        <v>1.637652821689708e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.39004629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>1389782.801051198</v>
+        <v>1537355.496164451</v>
       </c>
     </row>
     <row r="7">
@@ -53666,28 +53666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1085.430692061337</v>
+        <v>1204.751110976658</v>
       </c>
       <c r="AB7" t="n">
-        <v>1485.134158700843</v>
+        <v>1648.393619906151</v>
       </c>
       <c r="AC7" t="n">
-        <v>1343.395038993317</v>
+        <v>1491.073246357283</v>
       </c>
       <c r="AD7" t="n">
-        <v>1085430.692061337</v>
+        <v>1204751.110976658</v>
       </c>
       <c r="AE7" t="n">
-        <v>1485134.158700843</v>
+        <v>1648393.619906151</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.14892008783115e-06</v>
+        <v>1.668426152981932e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.88657407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1343395.038993317</v>
+        <v>1491073.246357283</v>
       </c>
     </row>
     <row r="8">
@@ -53772,28 +53772,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1062.404163935234</v>
+        <v>1181.724582850555</v>
       </c>
       <c r="AB8" t="n">
-        <v>1453.628247059984</v>
+        <v>1616.887708265292</v>
       </c>
       <c r="AC8" t="n">
-        <v>1314.896007340637</v>
+        <v>1462.574214704603</v>
       </c>
       <c r="AD8" t="n">
-        <v>1062404.163935234</v>
+        <v>1181724.582850555</v>
       </c>
       <c r="AE8" t="n">
-        <v>1453628.247059984</v>
+        <v>1616887.708265292</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.165414062331235e-06</v>
+        <v>1.692378191695527e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.50462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1314896.007340637</v>
+        <v>1462574.214704603</v>
       </c>
     </row>
     <row r="9">
@@ -53878,28 +53878,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1043.11070214359</v>
+        <v>1153.902227726756</v>
       </c>
       <c r="AB9" t="n">
-        <v>1427.230081469196</v>
+        <v>1578.819934549229</v>
       </c>
       <c r="AC9" t="n">
-        <v>1291.017245623775</v>
+        <v>1428.139575883545</v>
       </c>
       <c r="AD9" t="n">
-        <v>1043110.70214359</v>
+        <v>1153902.227726756</v>
       </c>
       <c r="AE9" t="n">
-        <v>1427230.081469195</v>
+        <v>1578819.934549229</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.179185730360432e-06</v>
+        <v>1.712376981301053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1291017.245623775</v>
+        <v>1428139.575883545</v>
       </c>
     </row>
     <row r="10">
@@ -53984,28 +53984,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1019.32668185203</v>
+        <v>1138.561759912779</v>
       </c>
       <c r="AB10" t="n">
-        <v>1394.687735629362</v>
+        <v>1557.830429712471</v>
       </c>
       <c r="AC10" t="n">
-        <v>1261.580695597425</v>
+        <v>1409.153279929452</v>
       </c>
       <c r="AD10" t="n">
-        <v>1019326.68185203</v>
+        <v>1138561.759912779</v>
       </c>
       <c r="AE10" t="n">
-        <v>1394687.735629362</v>
+        <v>1557830.429712471</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18922089931194e-06</v>
+        <v>1.726949742719033e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.97800925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1261580.695597425</v>
+        <v>1409153.279929452</v>
       </c>
     </row>
     <row r="11">
@@ -54090,28 +54090,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1007.43767815879</v>
+        <v>1126.672756219539</v>
       </c>
       <c r="AB11" t="n">
-        <v>1378.420676270445</v>
+        <v>1541.563370353555</v>
       </c>
       <c r="AC11" t="n">
-        <v>1246.866141552763</v>
+        <v>1394.438725884791</v>
       </c>
       <c r="AD11" t="n">
-        <v>1007437.67815879</v>
+        <v>1126672.75621954</v>
       </c>
       <c r="AE11" t="n">
-        <v>1378420.676270445</v>
+        <v>1541563.370353555</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.196480383234307e-06</v>
+        <v>1.73749174034055e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.81597222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1246866.141552763</v>
+        <v>1394438.725884791</v>
       </c>
     </row>
     <row r="12">
@@ -54196,28 +54196,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>996.1515506873119</v>
+        <v>1107.028327616498</v>
       </c>
       <c r="AB12" t="n">
-        <v>1362.978498755166</v>
+        <v>1514.684996487849</v>
       </c>
       <c r="AC12" t="n">
-        <v>1232.89774378631</v>
+        <v>1370.125586296793</v>
       </c>
       <c r="AD12" t="n">
-        <v>996151.5506873119</v>
+        <v>1107028.327616498</v>
       </c>
       <c r="AE12" t="n">
-        <v>1362978.498755166</v>
+        <v>1514684.996487849</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.203152703015895e-06</v>
+        <v>1.747181076389739e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1232897.74378631</v>
+        <v>1370125.586296793</v>
       </c>
     </row>
     <row r="13">
@@ -54302,28 +54302,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>987.111924530211</v>
+        <v>1097.988701459398</v>
       </c>
       <c r="AB13" t="n">
-        <v>1350.61008344686</v>
+        <v>1502.316581179544</v>
       </c>
       <c r="AC13" t="n">
-        <v>1221.709752675849</v>
+        <v>1358.937595186332</v>
       </c>
       <c r="AD13" t="n">
-        <v>987111.924530211</v>
+        <v>1097988.701459398</v>
       </c>
       <c r="AE13" t="n">
-        <v>1350610.08344686</v>
+        <v>1502316.581179544</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.208277044608154e-06</v>
+        <v>1.754622486475517e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.56712962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1221709.752675849</v>
+        <v>1358937.595186332</v>
       </c>
     </row>
     <row r="14">
@@ -54408,28 +54408,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>979.2841829472796</v>
+        <v>1090.160959876466</v>
       </c>
       <c r="AB14" t="n">
-        <v>1339.899822077508</v>
+        <v>1491.606319810191</v>
       </c>
       <c r="AC14" t="n">
-        <v>1212.021663619641</v>
+        <v>1349.249506130124</v>
       </c>
       <c r="AD14" t="n">
-        <v>979284.1829472797</v>
+        <v>1090160.959876466</v>
       </c>
       <c r="AE14" t="n">
-        <v>1339899.822077508</v>
+        <v>1491606.319810191</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.211266243870306e-06</v>
+        <v>1.758963309025553e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.50347222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1212021.663619641</v>
+        <v>1349249.506130124</v>
       </c>
     </row>
     <row r="15">
@@ -54514,28 +54514,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>967.8084731731055</v>
+        <v>1078.5146579017</v>
       </c>
       <c r="AB15" t="n">
-        <v>1324.198249691899</v>
+        <v>1475.671335649734</v>
       </c>
       <c r="AC15" t="n">
-        <v>1197.818627265219</v>
+        <v>1334.835334493051</v>
       </c>
       <c r="AD15" t="n">
-        <v>967808.4731731055</v>
+        <v>1078514.6579017</v>
       </c>
       <c r="AE15" t="n">
-        <v>1324198.249691898</v>
+        <v>1475671.335649734</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.217244642394608e-06</v>
+        <v>1.767644954125626e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.37615740740741</v>
       </c>
       <c r="AH15" t="n">
-        <v>1197818.627265219</v>
+        <v>1334835.334493051</v>
       </c>
     </row>
     <row r="16">
@@ -54620,28 +54620,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>958.7707501521917</v>
+        <v>1069.476934880786</v>
       </c>
       <c r="AB16" t="n">
-        <v>1311.832438338484</v>
+        <v>1463.305524296321</v>
       </c>
       <c r="AC16" t="n">
-        <v>1186.632991591849</v>
+        <v>1323.649698819682</v>
       </c>
       <c r="AD16" t="n">
-        <v>958770.7501521917</v>
+        <v>1069476.934880786</v>
       </c>
       <c r="AE16" t="n">
-        <v>1311832.438338484</v>
+        <v>1463305.524296321</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.22103452003055e-06</v>
+        <v>1.773148497001566e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.30092592592592</v>
       </c>
       <c r="AH16" t="n">
-        <v>1186632.991591849</v>
+        <v>1323649.698819682</v>
       </c>
     </row>
     <row r="17">
@@ -54726,28 +54726,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>954.6230175119856</v>
+        <v>1065.32920224058</v>
       </c>
       <c r="AB17" t="n">
-        <v>1306.157327555105</v>
+        <v>1457.630413512941</v>
       </c>
       <c r="AC17" t="n">
-        <v>1181.499505416568</v>
+        <v>1318.5162126444</v>
       </c>
       <c r="AD17" t="n">
-        <v>954623.0175119856</v>
+        <v>1065329.20224058</v>
       </c>
       <c r="AE17" t="n">
-        <v>1306157.327555105</v>
+        <v>1457630.413512941</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.222048712637351e-06</v>
+        <v>1.774621276081043e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1181499.505416568</v>
+        <v>1318516.2126444</v>
       </c>
     </row>
     <row r="18">
@@ -54832,28 +54832,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>944.5961415945982</v>
+        <v>1055.302326323192</v>
       </c>
       <c r="AB18" t="n">
-        <v>1292.43811357039</v>
+        <v>1443.911199528226</v>
       </c>
       <c r="AC18" t="n">
-        <v>1169.089633959516</v>
+        <v>1306.106341187348</v>
       </c>
       <c r="AD18" t="n">
-        <v>944596.1415945982</v>
+        <v>1055302.326323192</v>
       </c>
       <c r="AE18" t="n">
-        <v>1292438.11357039</v>
+        <v>1443911.199528226</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.226585890088831e-06</v>
+        <v>1.781210024594491e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.18518518518519</v>
       </c>
       <c r="AH18" t="n">
-        <v>1169089.633959516</v>
+        <v>1306106.341187348</v>
       </c>
     </row>
     <row r="19">
@@ -54938,28 +54938,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>940.4468619232496</v>
+        <v>1051.153046651844</v>
       </c>
       <c r="AB19" t="n">
-        <v>1286.760886070751</v>
+        <v>1438.233972028587</v>
       </c>
       <c r="AC19" t="n">
-        <v>1163.954233084404</v>
+        <v>1300.970940312236</v>
       </c>
       <c r="AD19" t="n">
-        <v>940446.8619232496</v>
+        <v>1051153.046651844</v>
       </c>
       <c r="AE19" t="n">
-        <v>1286760.886070751</v>
+        <v>1438233.972028587</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.227866975486896e-06</v>
+        <v>1.783070377115935e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1163954.233084404</v>
+        <v>1300970.940312236</v>
       </c>
     </row>
     <row r="20">
@@ -55044,28 +55044,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>931.9500293568236</v>
+        <v>1042.656214085418</v>
       </c>
       <c r="AB20" t="n">
-        <v>1275.135144899569</v>
+        <v>1426.608230857406</v>
       </c>
       <c r="AC20" t="n">
-        <v>1153.43803633377</v>
+        <v>1290.454743561602</v>
       </c>
       <c r="AD20" t="n">
-        <v>931950.0293568237</v>
+        <v>1042656.214085418</v>
       </c>
       <c r="AE20" t="n">
-        <v>1275135.144899569</v>
+        <v>1426608.230857406</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.229681846467487e-06</v>
+        <v>1.785705876521315e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.12152777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>1153438.03633377</v>
+        <v>1290454.743561602</v>
       </c>
     </row>
     <row r="21">
@@ -55150,28 +55150,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>924.8444998010666</v>
+        <v>1035.550684529661</v>
       </c>
       <c r="AB21" t="n">
-        <v>1265.413045887543</v>
+        <v>1416.886131845379</v>
       </c>
       <c r="AC21" t="n">
-        <v>1144.643800806399</v>
+        <v>1281.660508034231</v>
       </c>
       <c r="AD21" t="n">
-        <v>924844.4998010666</v>
+        <v>1035550.684529661</v>
       </c>
       <c r="AE21" t="n">
-        <v>1265413.045887543</v>
+        <v>1416886.131845379</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.231656853122837e-06</v>
+        <v>1.788573919991874e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25.08101851851852</v>
       </c>
       <c r="AH21" t="n">
-        <v>1144643.800806399</v>
+        <v>1281660.508034231</v>
       </c>
     </row>
     <row r="22">
@@ -55256,28 +55256,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>918.1984259064701</v>
+        <v>1020.546309503501</v>
       </c>
       <c r="AB22" t="n">
-        <v>1256.319594380869</v>
+        <v>1396.356483988279</v>
       </c>
       <c r="AC22" t="n">
-        <v>1136.418215548783</v>
+        <v>1263.090180955071</v>
       </c>
       <c r="AD22" t="n">
-        <v>918198.4259064702</v>
+        <v>1020546.309503501</v>
       </c>
       <c r="AE22" t="n">
-        <v>1256319.594380869</v>
+        <v>1396356.483988279</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.233525102661682e-06</v>
+        <v>1.791286934085647e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25.04050925925926</v>
       </c>
       <c r="AH22" t="n">
-        <v>1136418.215548783</v>
+        <v>1263090.180955071</v>
       </c>
     </row>
     <row r="23">
@@ -55362,28 +55362,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>914.0925885229238</v>
+        <v>1016.440472119955</v>
       </c>
       <c r="AB23" t="n">
-        <v>1250.70180653594</v>
+        <v>1390.738696143349</v>
       </c>
       <c r="AC23" t="n">
-        <v>1131.336581491159</v>
+        <v>1258.008546897447</v>
       </c>
       <c r="AD23" t="n">
-        <v>914092.5885229239</v>
+        <v>1016440.472119955</v>
       </c>
       <c r="AE23" t="n">
-        <v>1250701.80653594</v>
+        <v>1390738.696143349</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234912945176252e-06</v>
+        <v>1.793302315983879e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25.01157407407408</v>
       </c>
       <c r="AH23" t="n">
-        <v>1131336.581491159</v>
+        <v>1258008.546897447</v>
       </c>
     </row>
     <row r="24">
@@ -55468,28 +55468,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>915.4661074643132</v>
+        <v>1017.813991061344</v>
       </c>
       <c r="AB24" t="n">
-        <v>1252.581115746927</v>
+        <v>1392.618005354337</v>
       </c>
       <c r="AC24" t="n">
-        <v>1133.036532068677</v>
+        <v>1259.708497474965</v>
       </c>
       <c r="AD24" t="n">
-        <v>915466.1074643132</v>
+        <v>1017813.991061344</v>
       </c>
       <c r="AE24" t="n">
-        <v>1252581.115746927</v>
+        <v>1392618.005354337</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.234592673826736e-06</v>
+        <v>1.792837227853517e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>25.02314814814815</v>
       </c>
       <c r="AH24" t="n">
-        <v>1133036.532068677</v>
+        <v>1259708.497474965</v>
       </c>
     </row>
   </sheetData>
@@ -55765,28 +55765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.641426788804</v>
+        <v>554.0901301718674</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.0604574966147</v>
+        <v>758.1305608324703</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.6918805004726</v>
+        <v>685.7756441495435</v>
       </c>
       <c r="AD2" t="n">
-        <v>454641.426788804</v>
+        <v>554090.1301718673</v>
       </c>
       <c r="AE2" t="n">
-        <v>622060.4574966148</v>
+        <v>758130.5608324703</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.46580099414587e-06</v>
+        <v>2.443402926222466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.07754629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>562691.8805004726</v>
+        <v>685775.6441495435</v>
       </c>
     </row>
   </sheetData>
@@ -56062,28 +56062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.924202696557</v>
+        <v>1309.947399285427</v>
       </c>
       <c r="AB2" t="n">
-        <v>1607.583128126992</v>
+        <v>1792.327822502908</v>
       </c>
       <c r="AC2" t="n">
-        <v>1454.157650635643</v>
+        <v>1621.270570671128</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174924.202696557</v>
+        <v>1309947.399285427</v>
       </c>
       <c r="AE2" t="n">
-        <v>1607583.128126992</v>
+        <v>1792327.822502908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015502324137148e-06</v>
+        <v>1.545499711478247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.50115740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1454157.650635643</v>
+        <v>1621270.570671128</v>
       </c>
     </row>
     <row r="3">
@@ -56168,28 +56168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>900.2922999455492</v>
+        <v>1011.402622260951</v>
       </c>
       <c r="AB3" t="n">
-        <v>1231.819642878612</v>
+        <v>1383.845687712011</v>
       </c>
       <c r="AC3" t="n">
-        <v>1114.256505032004</v>
+        <v>1251.773397516397</v>
       </c>
       <c r="AD3" t="n">
-        <v>900292.2999455492</v>
+        <v>1011402.622260951</v>
       </c>
       <c r="AE3" t="n">
-        <v>1231819.642878612</v>
+        <v>1383845.687712011</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.205563630952906e-06</v>
+        <v>1.834755272854255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.21759259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1114256.505032004</v>
+        <v>1251773.397516397</v>
       </c>
     </row>
     <row r="4">
@@ -56274,28 +56274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>816.5268688161104</v>
+        <v>927.637101622961</v>
       </c>
       <c r="AB4" t="n">
-        <v>1117.208084537306</v>
+        <v>1269.234006901156</v>
       </c>
       <c r="AC4" t="n">
-        <v>1010.583312960459</v>
+        <v>1148.100094663626</v>
       </c>
       <c r="AD4" t="n">
-        <v>816526.8688161104</v>
+        <v>927637.101622961</v>
       </c>
       <c r="AE4" t="n">
-        <v>1117208.084537306</v>
+        <v>1269234.006901156</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273581240599003e-06</v>
+        <v>1.938271723368342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.71296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1010583.312960459</v>
+        <v>1148100.094663626</v>
       </c>
     </row>
     <row r="5">
@@ -56380,28 +56380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>771.687264482196</v>
+        <v>882.712156434475</v>
       </c>
       <c r="AB5" t="n">
-        <v>1055.856559703914</v>
+        <v>1207.765714945567</v>
       </c>
       <c r="AC5" t="n">
-        <v>955.0870915497608</v>
+        <v>1092.498250220988</v>
       </c>
       <c r="AD5" t="n">
-        <v>771687.2644821961</v>
+        <v>882712.156434475</v>
       </c>
       <c r="AE5" t="n">
-        <v>1055856.559703914</v>
+        <v>1207765.714945567</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.309383076618427e-06</v>
+        <v>1.992758774676103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>955087.0915497608</v>
+        <v>1092498.250220988</v>
       </c>
     </row>
     <row r="6">
@@ -56486,28 +56486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>748.1648446487384</v>
+        <v>851.4178773343447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1023.672147151854</v>
+        <v>1164.947501674613</v>
       </c>
       <c r="AC6" t="n">
-        <v>925.9743141605625</v>
+        <v>1053.766547128874</v>
       </c>
       <c r="AD6" t="n">
-        <v>748164.8446487384</v>
+        <v>851417.8773343447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1023672.147151854</v>
+        <v>1164947.501674613</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329018237916436e-06</v>
+        <v>2.022641656674119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.59606481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>925974.3141605625</v>
+        <v>1053766.547128874</v>
       </c>
     </row>
     <row r="7">
@@ -56592,28 +56592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>726.4341948942416</v>
+        <v>829.5166353792557</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.9393134691455</v>
+        <v>1134.981256217057</v>
       </c>
       <c r="AC7" t="n">
-        <v>899.0791403942375</v>
+        <v>1026.660238079898</v>
       </c>
       <c r="AD7" t="n">
-        <v>726434.1948942416</v>
+        <v>829516.6353792557</v>
       </c>
       <c r="AE7" t="n">
-        <v>993939.3134691456</v>
+        <v>1134981.256217057</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.345126124729773e-06</v>
+        <v>2.047156356277282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.28935185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>899079.1403942375</v>
+        <v>1026660.238079898</v>
       </c>
     </row>
     <row r="8">
@@ -56698,28 +56698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>708.7760966342346</v>
+        <v>811.8585371192487</v>
       </c>
       <c r="AB8" t="n">
-        <v>969.778724409489</v>
+        <v>1110.8206671574</v>
       </c>
       <c r="AC8" t="n">
-        <v>877.2244040448346</v>
+        <v>1004.805501730496</v>
       </c>
       <c r="AD8" t="n">
-        <v>708776.0966342345</v>
+        <v>811858.5371192486</v>
       </c>
       <c r="AE8" t="n">
-        <v>969778.724409489</v>
+        <v>1110820.6671574</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.354532190022232e-06</v>
+        <v>2.061471509330224e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.11574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>877224.4040448347</v>
+        <v>1004805.501730496</v>
       </c>
     </row>
     <row r="9">
@@ -56804,28 +56804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>700.8731228311411</v>
+        <v>796.1837040494827</v>
       </c>
       <c r="AB9" t="n">
-        <v>958.9655269974992</v>
+        <v>1089.373669026517</v>
       </c>
       <c r="AC9" t="n">
-        <v>867.4432030174274</v>
+        <v>985.4053750001726</v>
       </c>
       <c r="AD9" t="n">
-        <v>700873.1228311411</v>
+        <v>796183.7040494827</v>
       </c>
       <c r="AE9" t="n">
-        <v>958965.5269974992</v>
+        <v>1089373.669026517</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358647343587683e-06</v>
+        <v>2.067734388790886e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.04050925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>867443.2030174275</v>
+        <v>985405.3750001726</v>
       </c>
     </row>
     <row r="10">
@@ -56910,28 +56910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>704.32737298091</v>
+        <v>799.6379541992517</v>
       </c>
       <c r="AB10" t="n">
-        <v>963.6917844431745</v>
+        <v>1094.099926472192</v>
       </c>
       <c r="AC10" t="n">
-        <v>871.7183930858314</v>
+        <v>989.6805650685767</v>
       </c>
       <c r="AD10" t="n">
-        <v>704327.37298091</v>
+        <v>799637.9541992517</v>
       </c>
       <c r="AE10" t="n">
-        <v>963691.7844431745</v>
+        <v>1094099.926472192</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.358529767771527e-06</v>
+        <v>2.067555449377724e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.04050925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>871718.3930858314</v>
+        <v>989680.5650685767</v>
       </c>
     </row>
   </sheetData>
@@ -57207,28 +57207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1503.561297195892</v>
+        <v>1658.634158248913</v>
       </c>
       <c r="AB2" t="n">
-        <v>2057.238899266344</v>
+        <v>2269.416429090879</v>
       </c>
       <c r="AC2" t="n">
-        <v>1860.898906073292</v>
+        <v>2052.826510244407</v>
       </c>
       <c r="AD2" t="n">
-        <v>1503561.297195892</v>
+        <v>1658634.158248913</v>
       </c>
       <c r="AE2" t="n">
-        <v>2057238.899266344</v>
+        <v>2269416.429090879</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.889054283332527e-07</v>
+        <v>1.327056419932344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.84606481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1860898.906073292</v>
+        <v>2052826.510244408</v>
       </c>
     </row>
     <row r="3">
@@ -57313,28 +57313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1077.937436615517</v>
+        <v>1200.430753910984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1474.881556020773</v>
+        <v>1642.482316768195</v>
       </c>
       <c r="AC3" t="n">
-        <v>1334.120930323415</v>
+        <v>1485.726109694247</v>
       </c>
       <c r="AD3" t="n">
-        <v>1077937.436615517</v>
+        <v>1200430.753910984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1474881.556020773</v>
+        <v>1642482.316768195</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.105910421152717e-06</v>
+        <v>1.651025494368549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.61805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1334120.930323415</v>
+        <v>1485726.109694247</v>
       </c>
     </row>
     <row r="4">
@@ -57419,28 +57419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>965.3770448098093</v>
+        <v>1079.704140952246</v>
       </c>
       <c r="AB4" t="n">
-        <v>1320.871462138187</v>
+        <v>1477.298838835781</v>
       </c>
       <c r="AC4" t="n">
-        <v>1194.809343646459</v>
+        <v>1336.307511059236</v>
       </c>
       <c r="AD4" t="n">
-        <v>965377.0448098093</v>
+        <v>1079704.140952246</v>
       </c>
       <c r="AE4" t="n">
-        <v>1320871.462138187</v>
+        <v>1477298.838835781</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186395841024725e-06</v>
+        <v>1.771183038408268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.60995370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1194809.343646459</v>
+        <v>1336307.511059236</v>
       </c>
     </row>
     <row r="5">
@@ -57525,28 +57525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>911.7146803393982</v>
+        <v>1025.956435627263</v>
       </c>
       <c r="AB5" t="n">
-        <v>1247.448247653335</v>
+        <v>1403.75885722873</v>
       </c>
       <c r="AC5" t="n">
-        <v>1128.393537701911</v>
+        <v>1269.78608208275</v>
       </c>
       <c r="AD5" t="n">
-        <v>911714.6803393982</v>
+        <v>1025956.435627263</v>
       </c>
       <c r="AE5" t="n">
-        <v>1247448.247653335</v>
+        <v>1403758.85722873</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226751751269973e-06</v>
+        <v>1.831430808380364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.70138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1128393.537701911</v>
+        <v>1269786.08208275</v>
       </c>
     </row>
     <row r="6">
@@ -57631,28 +57631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>881.8386303938011</v>
+        <v>987.9142540371859</v>
       </c>
       <c r="AB6" t="n">
-        <v>1206.570518079467</v>
+        <v>1351.707866074583</v>
       </c>
       <c r="AC6" t="n">
-        <v>1091.41712126632</v>
+        <v>1222.702764470329</v>
       </c>
       <c r="AD6" t="n">
-        <v>881838.630393801</v>
+        <v>987914.2540371858</v>
       </c>
       <c r="AE6" t="n">
-        <v>1206570.518079467</v>
+        <v>1351707.866074583</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.252448221468209e-06</v>
+        <v>1.869793343537912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.15162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1091417.12126632</v>
+        <v>1222702.764470329</v>
       </c>
     </row>
     <row r="7">
@@ -57737,28 +57737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>853.5704891485583</v>
+        <v>967.7269035818516</v>
       </c>
       <c r="AB7" t="n">
-        <v>1167.892800125351</v>
+        <v>1324.086642578548</v>
       </c>
       <c r="AC7" t="n">
-        <v>1056.430750429226</v>
+        <v>1197.717671778126</v>
       </c>
       <c r="AD7" t="n">
-        <v>853570.4891485584</v>
+        <v>967726.9035818516</v>
       </c>
       <c r="AE7" t="n">
-        <v>1167892.800125351</v>
+        <v>1324086.642578549</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.26812646429841e-06</v>
+        <v>1.893199559922583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.8275462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1056430.750429226</v>
+        <v>1197717.671778126</v>
       </c>
     </row>
     <row r="8">
@@ -57843,28 +57843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>834.7401128727098</v>
+        <v>940.9009878621152</v>
       </c>
       <c r="AB8" t="n">
-        <v>1142.128248567164</v>
+        <v>1287.382241214929</v>
       </c>
       <c r="AC8" t="n">
-        <v>1033.125131510978</v>
+        <v>1164.516286965699</v>
       </c>
       <c r="AD8" t="n">
-        <v>834740.1128727098</v>
+        <v>940900.9878621153</v>
       </c>
       <c r="AE8" t="n">
-        <v>1142128.248567164</v>
+        <v>1287382.241214929</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28137090047988e-06</v>
+        <v>1.912972320334182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.5613425925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1033125.131510978</v>
+        <v>1164516.286965699</v>
       </c>
     </row>
     <row r="9">
@@ -57949,28 +57949,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>819.5146980511739</v>
+        <v>925.5049808399872</v>
       </c>
       <c r="AB9" t="n">
-        <v>1121.296164310443</v>
+        <v>1266.316745183361</v>
       </c>
       <c r="AC9" t="n">
-        <v>1014.281232137704</v>
+        <v>1145.461252309774</v>
       </c>
       <c r="AD9" t="n">
-        <v>819514.6980511739</v>
+        <v>925504.9808399872</v>
       </c>
       <c r="AE9" t="n">
-        <v>1121296.164310443</v>
+        <v>1266316.745183361</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291049526920184e-06</v>
+        <v>1.927421645250351e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.37037037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1014281.232137704</v>
+        <v>1145461.252309774</v>
       </c>
     </row>
     <row r="10">
@@ -58055,28 +58055,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>804.9744605769768</v>
+        <v>910.9647433657901</v>
       </c>
       <c r="AB10" t="n">
-        <v>1101.401569928242</v>
+        <v>1246.42215080116</v>
       </c>
       <c r="AC10" t="n">
-        <v>996.2853499211017</v>
+        <v>1127.465370093172</v>
       </c>
       <c r="AD10" t="n">
-        <v>804974.4605769768</v>
+        <v>910964.7433657901</v>
       </c>
       <c r="AE10" t="n">
-        <v>1101401.569928242</v>
+        <v>1246422.15080116</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.298747147948731e-06</v>
+        <v>1.938913506002392e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.2199074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>996285.3499211017</v>
+        <v>1127465.370093172</v>
       </c>
     </row>
     <row r="11">
@@ -58161,28 +58161,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>793.0341298118334</v>
+        <v>899.0244126006467</v>
       </c>
       <c r="AB11" t="n">
-        <v>1085.064282605156</v>
+        <v>1230.084863478075</v>
       </c>
       <c r="AC11" t="n">
-        <v>981.5072703706049</v>
+        <v>1112.687290542675</v>
       </c>
       <c r="AD11" t="n">
-        <v>793034.1298118334</v>
+        <v>899024.4126006466</v>
       </c>
       <c r="AE11" t="n">
-        <v>1085064.282605157</v>
+        <v>1230084.863478075</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.303897762019302e-06</v>
+        <v>1.946602912829125e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.12152777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>981507.2703706049</v>
+        <v>1112687.290542675</v>
       </c>
     </row>
     <row r="12">
@@ -58267,28 +58267,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>779.999653361332</v>
+        <v>877.9943967062575</v>
       </c>
       <c r="AB12" t="n">
-        <v>1067.229936885064</v>
+        <v>1201.310667952549</v>
       </c>
       <c r="AC12" t="n">
-        <v>965.3750095753768</v>
+        <v>1086.659263853269</v>
       </c>
       <c r="AD12" t="n">
-        <v>779999.653361332</v>
+        <v>877994.3967062575</v>
       </c>
       <c r="AE12" t="n">
-        <v>1067229.936885064</v>
+        <v>1201310.667952549</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.308369174234414e-06</v>
+        <v>1.953278331942442e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.03472222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>965375.0095753768</v>
+        <v>1086659.263853269</v>
       </c>
     </row>
     <row r="13">
@@ -58373,28 +58373,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>767.689054558226</v>
+        <v>873.7645886930597</v>
       </c>
       <c r="AB13" t="n">
-        <v>1050.386032497365</v>
+        <v>1195.523258022933</v>
       </c>
       <c r="AC13" t="n">
-        <v>950.1386637818719</v>
+        <v>1081.424196204654</v>
       </c>
       <c r="AD13" t="n">
-        <v>767689.0545582259</v>
+        <v>873764.5886930597</v>
       </c>
       <c r="AE13" t="n">
-        <v>1050386.032497365</v>
+        <v>1195523.258022933</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.310802980883146e-06</v>
+        <v>1.956911787915514e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.98842592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>950138.6637818719</v>
+        <v>1081424.196204654</v>
       </c>
     </row>
     <row r="14">
@@ -58479,28 +58479,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>770.233907957959</v>
+        <v>876.3094420927928</v>
       </c>
       <c r="AB14" t="n">
-        <v>1053.868013189889</v>
+        <v>1199.005238715456</v>
       </c>
       <c r="AC14" t="n">
-        <v>953.288329124091</v>
+        <v>1084.573861546874</v>
       </c>
       <c r="AD14" t="n">
-        <v>770233.907957959</v>
+        <v>876309.4420927928</v>
       </c>
       <c r="AE14" t="n">
-        <v>1053868.013189889</v>
+        <v>1199005.238715456</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.310859581037767e-06</v>
+        <v>1.956996286891632e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.98842592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>953288.329124091</v>
+        <v>1084573.861546874</v>
       </c>
     </row>
   </sheetData>
